--- a/data/BoomBust_DatafromTables.xlsx
+++ b/data/BoomBust_DatafromTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4f5e485ed766aa2/Pictures/Documents/Journal Publications/Manuscripts/Dissertation/boom-bust/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1410" documentId="8_{70A43E18-57AA-40B9-A6AA-B8B1D80A3999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31996139-20BF-4EA9-855B-B8D1256E8CB0}"/>
+  <xr:revisionPtr revIDLastSave="1489" documentId="8_{70A43E18-57AA-40B9-A6AA-B8B1D80A3999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{161B0ACB-3549-4428-842D-DF04F882C4F3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8025EA18-20DD-4AB1-8E18-97042F4F59FB}"/>
+    <workbookView xWindow="1584" yWindow="1896" windowWidth="17304" windowHeight="8892" xr2:uid="{8025EA18-20DD-4AB1-8E18-97042F4F59FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="74">
   <si>
     <t>plot</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Shore 2</t>
-  </si>
-  <si>
-    <t>Density</t>
   </si>
   <si>
     <t>Shore 3</t>
@@ -257,10 +254,10 @@
     <t>Harvest</t>
   </si>
   <si>
-    <t>Density (n/0.25m^2</t>
+    <t>N</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Density (n/0.25m^2)</t>
   </si>
 </sst>
 </file>
@@ -654,7 +651,7 @@
   <dimension ref="A1:H469"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G394" sqref="G394"/>
+      <selection activeCell="G319" sqref="G319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -729,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -750,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -771,7 +768,7 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -792,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -813,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -834,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -855,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -876,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -897,7 +894,7 @@
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -918,7 +915,7 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -940,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -961,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -983,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1004,7 +1001,7 @@
         <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1025,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1046,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1067,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1088,7 +1085,7 @@
         <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1110,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1132,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1153,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1174,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1195,7 +1192,7 @@
         <v>9</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1216,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1237,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1258,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1279,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1300,7 +1297,7 @@
         <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1321,7 +1318,7 @@
         <v>9</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1342,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1363,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1384,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1405,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1426,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1447,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1468,7 +1465,7 @@
         <v>9</v>
       </c>
       <c r="H38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1489,7 +1486,7 @@
         <v>9</v>
       </c>
       <c r="H39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1510,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="H40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1531,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="H41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1552,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1573,7 +1570,7 @@
         <v>9</v>
       </c>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1594,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1615,7 +1612,7 @@
         <v>9</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1636,7 +1633,7 @@
         <v>9</v>
       </c>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -1657,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -1678,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1699,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1720,7 +1717,7 @@
         <v>9</v>
       </c>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1741,7 +1738,7 @@
         <v>9</v>
       </c>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1762,7 +1759,7 @@
         <v>9</v>
       </c>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1783,7 +1780,7 @@
         <v>9</v>
       </c>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1804,7 +1801,7 @@
         <v>9</v>
       </c>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1825,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="H55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -1846,7 +1843,7 @@
         <v>9</v>
       </c>
       <c r="H56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -1867,7 +1864,7 @@
         <v>9</v>
       </c>
       <c r="H57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -1889,7 +1886,7 @@
         <v>9</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -1910,7 +1907,7 @@
         <v>9</v>
       </c>
       <c r="H59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1931,7 +1928,7 @@
         <v>9</v>
       </c>
       <c r="H60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -1952,7 +1949,7 @@
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -1973,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="H62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -1994,7 +1991,7 @@
         <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2015,7 +2012,7 @@
         <v>9</v>
       </c>
       <c r="H64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2036,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="H65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2057,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="H66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2078,7 +2075,7 @@
         <v>9</v>
       </c>
       <c r="H67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2099,7 +2096,7 @@
         <v>9</v>
       </c>
       <c r="H68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2120,7 +2117,7 @@
         <v>9</v>
       </c>
       <c r="H69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2141,7 +2138,7 @@
         <v>9</v>
       </c>
       <c r="H70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2162,7 +2159,7 @@
         <v>9</v>
       </c>
       <c r="H71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2183,7 +2180,7 @@
         <v>9</v>
       </c>
       <c r="H72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2204,7 +2201,7 @@
         <v>9</v>
       </c>
       <c r="H73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2225,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="H74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2246,7 +2243,7 @@
         <v>9</v>
       </c>
       <c r="H75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2267,7 +2264,7 @@
         <v>9</v>
       </c>
       <c r="H76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2289,7 +2286,7 @@
         <v>9</v>
       </c>
       <c r="H77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2312,10 +2309,10 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2338,10 +2335,10 @@
         <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2364,10 +2361,10 @@
         <v>6</v>
       </c>
       <c r="G80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2390,10 +2387,10 @@
         <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2416,10 +2413,10 @@
         <v>5</v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -2442,10 +2439,10 @@
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -2468,10 +2465,10 @@
         <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -2494,10 +2491,10 @@
         <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -2520,10 +2517,10 @@
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -2546,10 +2543,10 @@
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -2572,10 +2569,10 @@
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -2598,10 +2595,10 @@
         <v>6</v>
       </c>
       <c r="G89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -2624,10 +2621,10 @@
         <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -2650,10 +2647,10 @@
         <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -2676,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -2702,10 +2699,10 @@
         <v>6</v>
       </c>
       <c r="G93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -2728,10 +2725,10 @@
         <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -2752,10 +2749,10 @@
         <v>2007</v>
       </c>
       <c r="G95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -2776,10 +2773,10 @@
         <v>2012</v>
       </c>
       <c r="G96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -2800,10 +2797,10 @@
         <v>2013</v>
       </c>
       <c r="G97" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -2824,10 +2821,10 @@
         <v>2014</v>
       </c>
       <c r="G98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -2850,7 +2847,7 @@
         <v>73</v>
       </c>
       <c r="H99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -2873,7 +2870,7 @@
         <v>73</v>
       </c>
       <c r="H100" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -2896,7 +2893,7 @@
         <v>73</v>
       </c>
       <c r="H101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -2919,7 +2916,7 @@
         <v>73</v>
       </c>
       <c r="H102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -2942,7 +2939,7 @@
         <v>73</v>
       </c>
       <c r="H103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -2965,7 +2962,7 @@
         <v>73</v>
       </c>
       <c r="H104" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -2988,7 +2985,7 @@
         <v>73</v>
       </c>
       <c r="H105" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3011,7 +3008,7 @@
         <v>73</v>
       </c>
       <c r="H106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3034,7 +3031,7 @@
         <v>73</v>
       </c>
       <c r="H107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3051,10 +3048,10 @@
         <v>1958</v>
       </c>
       <c r="G108" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -3071,10 +3068,10 @@
         <v>1963</v>
       </c>
       <c r="G109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -3091,10 +3088,10 @@
         <v>1964</v>
       </c>
       <c r="G110" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H110" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -3111,10 +3108,10 @@
         <v>1965</v>
       </c>
       <c r="G111" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -3131,10 +3128,10 @@
         <v>1966</v>
       </c>
       <c r="G112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3151,10 +3148,10 @@
         <v>1967</v>
       </c>
       <c r="G113" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3171,10 +3168,10 @@
         <v>1969</v>
       </c>
       <c r="G114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -3191,10 +3188,10 @@
         <v>1975</v>
       </c>
       <c r="G115" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H115" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -3211,10 +3208,10 @@
         <v>1979</v>
       </c>
       <c r="G116" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -3231,10 +3228,10 @@
         <v>1980</v>
       </c>
       <c r="G117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H117" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -3251,10 +3248,10 @@
         <v>1982</v>
       </c>
       <c r="G118" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -3271,10 +3268,10 @@
         <v>1983</v>
       </c>
       <c r="G119" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -3291,10 +3288,10 @@
         <v>1999</v>
       </c>
       <c r="G120" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H120" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -3311,10 +3308,10 @@
         <v>2000</v>
       </c>
       <c r="G121" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H121" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -3331,10 +3328,10 @@
         <v>2002</v>
       </c>
       <c r="G122" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H122" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -3351,10 +3348,10 @@
         <v>2003</v>
       </c>
       <c r="G123" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H123" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -3371,10 +3368,10 @@
         <v>2004</v>
       </c>
       <c r="G124" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H124" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -3391,10 +3388,10 @@
         <v>1958</v>
       </c>
       <c r="G125" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H125" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -3411,10 +3408,10 @@
         <v>1963</v>
       </c>
       <c r="G126" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H126" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -3431,10 +3428,10 @@
         <v>1964</v>
       </c>
       <c r="G127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -3451,10 +3448,10 @@
         <v>1965</v>
       </c>
       <c r="G128" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H128" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -3471,10 +3468,10 @@
         <v>1966</v>
       </c>
       <c r="G129" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H129" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -3491,10 +3488,10 @@
         <v>1967</v>
       </c>
       <c r="G130" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -3511,10 +3508,10 @@
         <v>1969</v>
       </c>
       <c r="G131" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H131" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -3531,10 +3528,10 @@
         <v>1975</v>
       </c>
       <c r="G132" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -3551,10 +3548,10 @@
         <v>1979</v>
       </c>
       <c r="G133" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -3571,10 +3568,10 @@
         <v>1980</v>
       </c>
       <c r="G134" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -3591,10 +3588,10 @@
         <v>1982</v>
       </c>
       <c r="G135" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -3611,10 +3608,10 @@
         <v>1983</v>
       </c>
       <c r="G136" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -3631,10 +3628,10 @@
         <v>1999</v>
       </c>
       <c r="G137" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -3651,10 +3648,10 @@
         <v>2000</v>
       </c>
       <c r="G138" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H138" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -3671,10 +3668,10 @@
         <v>2002</v>
       </c>
       <c r="G139" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H139" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -3691,10 +3688,10 @@
         <v>2003</v>
       </c>
       <c r="G140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H140" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -3711,10 +3708,10 @@
         <v>2004</v>
       </c>
       <c r="G141" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -3731,10 +3728,10 @@
         <v>1958</v>
       </c>
       <c r="G142" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H142" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -3751,10 +3748,10 @@
         <v>1963</v>
       </c>
       <c r="G143" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H143" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -3771,10 +3768,10 @@
         <v>1964</v>
       </c>
       <c r="G144" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H144" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -3791,10 +3788,10 @@
         <v>1965</v>
       </c>
       <c r="G145" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H145" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -3811,10 +3808,10 @@
         <v>1966</v>
       </c>
       <c r="G146" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H146" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -3831,10 +3828,10 @@
         <v>1967</v>
       </c>
       <c r="G147" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H147" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -3851,10 +3848,10 @@
         <v>1969</v>
       </c>
       <c r="G148" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H148" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -3871,10 +3868,10 @@
         <v>1975</v>
       </c>
       <c r="G149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H149" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -3891,10 +3888,10 @@
         <v>1979</v>
       </c>
       <c r="G150" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H150" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -3911,10 +3908,10 @@
         <v>1980</v>
       </c>
       <c r="G151" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H151" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -3931,10 +3928,10 @@
         <v>1982</v>
       </c>
       <c r="G152" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -3951,10 +3948,10 @@
         <v>1983</v>
       </c>
       <c r="G153" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H153" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -3971,10 +3968,10 @@
         <v>1999</v>
       </c>
       <c r="G154" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H154" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -3991,10 +3988,10 @@
         <v>2000</v>
       </c>
       <c r="G155" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H155" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -4011,10 +4008,10 @@
         <v>2002</v>
       </c>
       <c r="G156" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H156" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -4031,10 +4028,10 @@
         <v>2003</v>
       </c>
       <c r="G157" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H157" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -4051,10 +4048,10 @@
         <v>2004</v>
       </c>
       <c r="G158" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H158" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -4071,10 +4068,10 @@
         <v>1958</v>
       </c>
       <c r="G159" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H159" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -4091,10 +4088,10 @@
         <v>1963</v>
       </c>
       <c r="G160" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H160" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -4111,10 +4108,10 @@
         <v>1964</v>
       </c>
       <c r="G161" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H161" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -4131,10 +4128,10 @@
         <v>1965</v>
       </c>
       <c r="G162" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H162" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -4151,10 +4148,10 @@
         <v>1966</v>
       </c>
       <c r="G163" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H163" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -4171,10 +4168,10 @@
         <v>1967</v>
       </c>
       <c r="G164" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H164" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -4191,10 +4188,10 @@
         <v>1969</v>
       </c>
       <c r="G165" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H165" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -4211,10 +4208,10 @@
         <v>1975</v>
       </c>
       <c r="G166" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H166" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -4231,10 +4228,10 @@
         <v>1979</v>
       </c>
       <c r="G167" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H167" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -4251,10 +4248,10 @@
         <v>1980</v>
       </c>
       <c r="G168" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -4271,10 +4268,10 @@
         <v>1982</v>
       </c>
       <c r="G169" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H169" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -4291,10 +4288,10 @@
         <v>1983</v>
       </c>
       <c r="G170" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H170" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -4311,10 +4308,10 @@
         <v>1999</v>
       </c>
       <c r="G171" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H171" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -4331,10 +4328,10 @@
         <v>2000</v>
       </c>
       <c r="G172" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H172" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -4351,10 +4348,10 @@
         <v>2002</v>
       </c>
       <c r="G173" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H173" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -4371,10 +4368,10 @@
         <v>2003</v>
       </c>
       <c r="G174" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H174" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -4391,15 +4388,15 @@
         <v>2004</v>
       </c>
       <c r="G175" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H175" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -4417,15 +4414,15 @@
         <v>5</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H176" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -4443,15 +4440,15 @@
         <v>8</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H177" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -4469,15 +4466,15 @@
         <v>6</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H178" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -4495,15 +4492,15 @@
         <v>9</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H179" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -4521,15 +4518,15 @@
         <v>7</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H180" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -4547,15 +4544,15 @@
         <v>4</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H181" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4573,21 +4570,21 @@
         <v>8</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H182" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B183">
         <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D183">
         <v>11.1</v>
@@ -4599,21 +4596,21 @@
         <v>5</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H183" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B184">
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -4625,21 +4622,21 @@
         <v>8</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H184" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B185">
         <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -4651,21 +4648,21 @@
         <v>5</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H185" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B186">
         <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -4677,21 +4674,21 @@
         <v>8</v>
       </c>
       <c r="G186" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H186" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B187">
         <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -4703,21 +4700,21 @@
         <v>7</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H187" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B188">
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -4729,21 +4726,21 @@
         <v>4</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H188" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B189">
         <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -4755,21 +4752,21 @@
         <v>8</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H189" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B190">
         <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D190">
         <v>1014</v>
@@ -4781,21 +4778,21 @@
         <v>5</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H190" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B191">
         <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D191">
         <v>389</v>
@@ -4807,21 +4804,21 @@
         <v>8</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H191" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B192">
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D192">
         <v>385</v>
@@ -4833,21 +4830,21 @@
         <v>7</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H192" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B193">
         <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D193">
         <v>694</v>
@@ -4859,21 +4856,21 @@
         <v>9</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H193" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B194">
         <v>3</v>
       </c>
       <c r="C194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -4885,21 +4882,21 @@
         <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H194" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B195">
         <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D195">
         <v>1.3</v>
@@ -4911,21 +4908,21 @@
         <v>4</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H195" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B196">
         <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D196">
         <v>21.3</v>
@@ -4937,21 +4934,21 @@
         <v>8</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H196" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B197">
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D197">
         <v>1.6</v>
@@ -4963,21 +4960,21 @@
         <v>4</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H197" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B198">
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -4989,21 +4986,21 @@
         <v>9</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H198" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B199">
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -5015,21 +5012,21 @@
         <v>6</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H199" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B200">
         <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -5041,21 +5038,21 @@
         <v>9</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H200" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B201">
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -5067,21 +5064,21 @@
         <v>7</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H201" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B202">
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -5093,21 +5090,21 @@
         <v>4</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H202" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B203">
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -5119,21 +5116,21 @@
         <v>8</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H203" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B204">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D204">
         <v>3.6</v>
@@ -5145,21 +5142,21 @@
         <v>5</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H204" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B205">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D205">
         <v>11.6</v>
@@ -5171,21 +5168,21 @@
         <v>9</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H205" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B206">
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D206">
         <v>3.6</v>
@@ -5197,21 +5194,21 @@
         <v>5</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H206" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B207">
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -5223,21 +5220,21 @@
         <v>9</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H207" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B208">
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -5249,21 +5246,21 @@
         <v>8</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H208" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B209">
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -5275,21 +5272,21 @@
         <v>3</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H209" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B210">
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -5301,21 +5298,21 @@
         <v>7</v>
       </c>
       <c r="G210" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H210" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B211">
         <v>6</v>
       </c>
       <c r="C211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -5327,21 +5324,21 @@
         <v>5</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H211" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B212">
         <v>6</v>
       </c>
       <c r="C212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D212">
         <v>22.3</v>
@@ -5353,21 +5350,21 @@
         <v>8</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H212" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B213">
         <v>6</v>
       </c>
       <c r="C213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -5379,21 +5376,21 @@
         <v>6</v>
       </c>
       <c r="G213" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H213" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B214">
         <v>6</v>
       </c>
       <c r="C214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -5405,21 +5402,21 @@
         <v>9</v>
       </c>
       <c r="G214" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H214" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B215">
         <v>6</v>
       </c>
       <c r="C215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -5431,21 +5428,21 @@
         <v>8</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H215" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B216">
         <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -5457,21 +5454,21 @@
         <v>3</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H216" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B217">
         <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -5483,21 +5480,21 @@
         <v>7</v>
       </c>
       <c r="G217" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H217" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B218">
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D218">
         <v>71.2</v>
@@ -5509,21 +5506,21 @@
         <v>5</v>
       </c>
       <c r="G218" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H218" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B219">
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D219">
         <v>10</v>
@@ -5535,21 +5532,21 @@
         <v>9</v>
       </c>
       <c r="G219" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H219" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B220">
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -5561,21 +5558,21 @@
         <v>6</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H220" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B221">
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D221">
         <v>0.4</v>
@@ -5587,21 +5584,21 @@
         <v>10</v>
       </c>
       <c r="G221" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H221" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B222">
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -5613,21 +5610,21 @@
         <v>8</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H222" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B223">
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -5639,21 +5636,21 @@
         <v>2</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H223" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B224">
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -5665,21 +5662,21 @@
         <v>7</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H224" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B225">
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D225">
         <v>322.7</v>
@@ -5691,21 +5688,21 @@
         <v>6</v>
       </c>
       <c r="G225" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H225" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B226">
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D226">
         <v>10.7</v>
@@ -5717,21 +5714,21 @@
         <v>9</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H226" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B227">
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -5743,21 +5740,21 @@
         <v>6</v>
       </c>
       <c r="G227" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H227" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B228">
         <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -5769,21 +5766,21 @@
         <v>9</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H228" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B229">
         <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -5795,21 +5792,21 @@
         <v>8</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H229" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B230">
         <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -5821,21 +5818,21 @@
         <v>2</v>
       </c>
       <c r="G230" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H230" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B231">
         <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -5847,21 +5844,21 @@
         <v>7</v>
       </c>
       <c r="G231" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H231" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B232">
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D232">
         <v>261.10000000000002</v>
@@ -5873,21 +5870,21 @@
         <v>6</v>
       </c>
       <c r="G232" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H232" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B233">
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D233">
         <v>69.5</v>
@@ -5899,21 +5896,21 @@
         <v>9</v>
       </c>
       <c r="G233" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H233" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B234">
         <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -5925,21 +5922,21 @@
         <v>6</v>
       </c>
       <c r="G234" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H234" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B235">
         <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -5951,21 +5948,21 @@
         <v>9</v>
       </c>
       <c r="G235" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H235" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B236">
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -5977,21 +5974,21 @@
         <v>9</v>
       </c>
       <c r="G236" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H236" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B237">
         <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -6003,21 +6000,21 @@
         <v>2</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H237" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B238">
         <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -6029,21 +6026,21 @@
         <v>8</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H238" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B239">
         <v>10</v>
       </c>
       <c r="C239" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D239">
         <v>88.7</v>
@@ -6055,21 +6052,21 @@
         <v>5</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H239" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B240">
         <v>10</v>
       </c>
       <c r="C240" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D240">
         <v>27</v>
@@ -6081,21 +6078,21 @@
         <v>9</v>
       </c>
       <c r="G240" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H240" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B241">
         <v>10</v>
       </c>
       <c r="C241" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D241">
         <v>20.5</v>
@@ -6107,21 +6104,21 @@
         <v>6</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H241" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B242">
         <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D242">
         <v>36.5</v>
@@ -6133,21 +6130,21 @@
         <v>9</v>
       </c>
       <c r="G242" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H242" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B243">
         <v>10</v>
       </c>
       <c r="C243" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -6159,21 +6156,21 @@
         <v>8</v>
       </c>
       <c r="G243" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H243" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B244">
         <v>10</v>
       </c>
       <c r="C244" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D244">
         <v>0.1</v>
@@ -6185,21 +6182,21 @@
         <v>3</v>
       </c>
       <c r="G244" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H244" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B245">
         <v>10</v>
       </c>
       <c r="C245" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D245">
         <v>1.1000000000000001</v>
@@ -6211,21 +6208,21 @@
         <v>8</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H245" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D246">
         <v>177</v>
@@ -6237,18 +6234,18 @@
         <v>9</v>
       </c>
       <c r="H246" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D247">
         <v>32.5</v>
@@ -6260,18 +6257,18 @@
         <v>9</v>
       </c>
       <c r="H247" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B248">
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D248">
         <v>74.5</v>
@@ -6283,18 +6280,18 @@
         <v>9</v>
       </c>
       <c r="H248" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B249">
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D249">
         <v>55.75</v>
@@ -6306,18 +6303,18 @@
         <v>9</v>
       </c>
       <c r="H249" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B250">
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D250">
         <v>59</v>
@@ -6329,18 +6326,18 @@
         <v>9</v>
       </c>
       <c r="H250" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B251">
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D251">
         <v>43.25</v>
@@ -6352,18 +6349,18 @@
         <v>9</v>
       </c>
       <c r="H251" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B252">
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D252">
         <v>28.25</v>
@@ -6375,18 +6372,18 @@
         <v>9</v>
       </c>
       <c r="H252" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B253">
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D253">
         <v>18.25</v>
@@ -6398,18 +6395,18 @@
         <v>9</v>
       </c>
       <c r="H253" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B254">
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D254">
         <v>13.75</v>
@@ -6421,18 +6418,18 @@
         <v>9</v>
       </c>
       <c r="H254" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B255">
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D255">
         <v>39.5</v>
@@ -6444,18 +6441,18 @@
         <v>9</v>
       </c>
       <c r="H255" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B256">
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D256">
         <v>38</v>
@@ -6467,18 +6464,18 @@
         <v>9</v>
       </c>
       <c r="H256" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B257">
         <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D257">
         <v>77</v>
@@ -6490,18 +6487,18 @@
         <v>9</v>
       </c>
       <c r="H257" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B258">
         <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D258">
         <v>16.5</v>
@@ -6513,18 +6510,18 @@
         <v>9</v>
       </c>
       <c r="H258" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B259">
         <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D259">
         <v>52</v>
@@ -6536,18 +6533,18 @@
         <v>9</v>
       </c>
       <c r="H259" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B260">
         <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D260">
         <v>26.75</v>
@@ -6559,18 +6556,18 @@
         <v>9</v>
       </c>
       <c r="H260" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B261">
         <v>2</v>
       </c>
       <c r="C261" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D261">
         <v>20.75</v>
@@ -6582,18 +6579,18 @@
         <v>9</v>
       </c>
       <c r="H261" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B262">
         <v>2</v>
       </c>
       <c r="C262" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D262">
         <v>9.75</v>
@@ -6605,18 +6602,18 @@
         <v>9</v>
       </c>
       <c r="H262" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B263">
         <v>2</v>
       </c>
       <c r="C263" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D263">
         <v>5</v>
@@ -6628,18 +6625,18 @@
         <v>9</v>
       </c>
       <c r="H263" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B264">
         <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D264">
         <v>5.75</v>
@@ -6651,18 +6648,18 @@
         <v>9</v>
       </c>
       <c r="H264" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B265">
         <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D265">
         <v>9</v>
@@ -6674,18 +6671,18 @@
         <v>9</v>
       </c>
       <c r="H265" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B266">
         <v>2</v>
       </c>
       <c r="C266" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D266">
         <v>6.5</v>
@@ -6697,18 +6694,18 @@
         <v>9</v>
       </c>
       <c r="H266" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B267">
         <v>2</v>
       </c>
       <c r="C267" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D267">
         <v>10.5</v>
@@ -6720,18 +6717,18 @@
         <v>9</v>
       </c>
       <c r="H267" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B268">
         <v>3</v>
       </c>
       <c r="C268" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D268">
         <v>136.5</v>
@@ -6743,18 +6740,18 @@
         <v>9</v>
       </c>
       <c r="H268" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B269">
         <v>3</v>
       </c>
       <c r="C269" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D269">
         <v>44</v>
@@ -6766,18 +6763,18 @@
         <v>9</v>
       </c>
       <c r="H269" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B270">
         <v>3</v>
       </c>
       <c r="C270" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D270">
         <v>38.5</v>
@@ -6789,18 +6786,18 @@
         <v>9</v>
       </c>
       <c r="H270" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B271">
         <v>3</v>
       </c>
       <c r="C271" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D271">
         <v>74.75</v>
@@ -6812,18 +6809,18 @@
         <v>9</v>
       </c>
       <c r="H271" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B272">
         <v>3</v>
       </c>
       <c r="C272" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D272">
         <v>72.75</v>
@@ -6835,18 +6832,18 @@
         <v>9</v>
       </c>
       <c r="H272" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B273">
         <v>3</v>
       </c>
       <c r="C273" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D273">
         <v>47.25</v>
@@ -6858,18 +6855,18 @@
         <v>9</v>
       </c>
       <c r="H273" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B274">
         <v>3</v>
       </c>
       <c r="C274" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D274">
         <v>25</v>
@@ -6881,18 +6878,18 @@
         <v>9</v>
       </c>
       <c r="H274" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B275">
         <v>3</v>
       </c>
       <c r="C275" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D275">
         <v>27</v>
@@ -6904,18 +6901,18 @@
         <v>9</v>
       </c>
       <c r="H275" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B276">
         <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D276">
         <v>62.25</v>
@@ -6927,18 +6924,18 @@
         <v>9</v>
       </c>
       <c r="H276" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B277">
         <v>3</v>
       </c>
       <c r="C277" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D277">
         <v>66</v>
@@ -6950,18 +6947,18 @@
         <v>9</v>
       </c>
       <c r="H277" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B278">
         <v>3</v>
       </c>
       <c r="C278" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D278">
         <v>46</v>
@@ -6973,18 +6970,18 @@
         <v>9</v>
       </c>
       <c r="H278" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B279">
         <v>4</v>
       </c>
       <c r="C279" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D279">
         <v>202.5</v>
@@ -6996,18 +6993,18 @@
         <v>9</v>
       </c>
       <c r="H279" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B280">
         <v>4</v>
       </c>
       <c r="C280" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D280">
         <v>45</v>
@@ -7019,18 +7016,18 @@
         <v>9</v>
       </c>
       <c r="H280" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B281">
         <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D281">
         <v>73.5</v>
@@ -7042,18 +7039,18 @@
         <v>9</v>
       </c>
       <c r="H281" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B282">
         <v>4</v>
       </c>
       <c r="C282" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D282">
         <v>50.75</v>
@@ -7065,18 +7062,18 @@
         <v>9</v>
       </c>
       <c r="H282" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B283">
         <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D283">
         <v>47</v>
@@ -7088,18 +7085,18 @@
         <v>9</v>
       </c>
       <c r="H283" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B284">
         <v>4</v>
       </c>
       <c r="C284" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D284">
         <v>36</v>
@@ -7111,18 +7108,18 @@
         <v>9</v>
       </c>
       <c r="H284" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B285">
         <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D285">
         <v>15.75</v>
@@ -7134,18 +7131,18 @@
         <v>9</v>
       </c>
       <c r="H285" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B286">
         <v>4</v>
       </c>
       <c r="C286" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D286">
         <v>12.75</v>
@@ -7157,18 +7154,18 @@
         <v>9</v>
       </c>
       <c r="H286" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B287">
         <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D287">
         <v>41.5</v>
@@ -7180,18 +7177,18 @@
         <v>9</v>
       </c>
       <c r="H287" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B288">
         <v>4</v>
       </c>
       <c r="C288" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D288">
         <v>54.25</v>
@@ -7203,18 +7200,18 @@
         <v>9</v>
       </c>
       <c r="H288" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B289">
         <v>4</v>
       </c>
       <c r="C289" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D289">
         <v>59.75</v>
@@ -7226,18 +7223,18 @@
         <v>9</v>
       </c>
       <c r="H289" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B290">
         <v>5</v>
       </c>
       <c r="C290" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D290">
         <v>3.75</v>
@@ -7249,18 +7246,18 @@
         <v>9</v>
       </c>
       <c r="H290" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B291">
         <v>5</v>
       </c>
       <c r="C291" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D291">
         <v>63.75</v>
@@ -7272,18 +7269,18 @@
         <v>9</v>
       </c>
       <c r="H291" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B292">
         <v>5</v>
       </c>
       <c r="C292" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D292">
         <v>20.25</v>
@@ -7295,18 +7292,18 @@
         <v>9</v>
       </c>
       <c r="H292" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B293">
         <v>5</v>
       </c>
       <c r="C293" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D293">
         <v>65</v>
@@ -7318,18 +7315,18 @@
         <v>9</v>
       </c>
       <c r="H293" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B294">
         <v>5</v>
       </c>
       <c r="C294" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D294">
         <v>62.75</v>
@@ -7341,18 +7338,18 @@
         <v>9</v>
       </c>
       <c r="H294" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B295">
         <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D295">
         <v>77.75</v>
@@ -7364,18 +7361,18 @@
         <v>9</v>
       </c>
       <c r="H295" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B296">
         <v>6</v>
       </c>
       <c r="C296" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D296">
         <v>32</v>
@@ -7387,18 +7384,18 @@
         <v>9</v>
       </c>
       <c r="H296" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B297">
         <v>6</v>
       </c>
       <c r="C297" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D297">
         <v>42.25</v>
@@ -7410,18 +7407,18 @@
         <v>9</v>
       </c>
       <c r="H297" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B298">
         <v>6</v>
       </c>
       <c r="C298" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D298">
         <v>28.25</v>
@@ -7433,18 +7430,18 @@
         <v>9</v>
       </c>
       <c r="H298" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B299">
         <v>6</v>
       </c>
       <c r="C299" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D299">
         <v>31.75</v>
@@ -7456,18 +7453,18 @@
         <v>9</v>
       </c>
       <c r="H299" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B300">
         <v>6</v>
       </c>
       <c r="C300" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D300">
         <v>96</v>
@@ -7479,18 +7476,18 @@
         <v>9</v>
       </c>
       <c r="H300" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B301">
         <v>6</v>
       </c>
       <c r="C301" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D301">
         <v>43</v>
@@ -7502,18 +7499,18 @@
         <v>9</v>
       </c>
       <c r="H301" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B302">
         <v>7</v>
       </c>
       <c r="C302" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D302">
         <v>148.25</v>
@@ -7525,18 +7522,18 @@
         <v>9</v>
       </c>
       <c r="H302" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B303">
         <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D303">
         <v>34.5</v>
@@ -7548,18 +7545,18 @@
         <v>9</v>
       </c>
       <c r="H303" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B304">
         <v>7</v>
       </c>
       <c r="C304" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D304">
         <v>59.625</v>
@@ -7571,18 +7568,18 @@
         <v>9</v>
       </c>
       <c r="H304" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B305">
         <v>7</v>
       </c>
       <c r="C305" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D305">
         <v>51.375</v>
@@ -7594,18 +7591,18 @@
         <v>9</v>
       </c>
       <c r="H305" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B306">
         <v>7</v>
       </c>
       <c r="C306" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D306">
         <v>49.375</v>
@@ -7617,18 +7614,18 @@
         <v>9</v>
       </c>
       <c r="H306" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B307">
         <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D307">
         <v>34.0625</v>
@@ -7640,18 +7637,18 @@
         <v>9</v>
       </c>
       <c r="H307" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B308">
         <v>7</v>
       </c>
       <c r="C308" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D308">
         <v>18.5</v>
@@ -7663,18 +7660,18 @@
         <v>9</v>
       </c>
       <c r="H308" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B309">
         <v>7</v>
       </c>
       <c r="C309" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D309">
         <v>15.9375</v>
@@ -7686,18 +7683,18 @@
         <v>9</v>
       </c>
       <c r="H309" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B310">
         <v>7</v>
       </c>
       <c r="C310" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D310">
         <v>31.625</v>
@@ -7709,18 +7706,18 @@
         <v>9</v>
       </c>
       <c r="H310" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B311">
         <v>7</v>
       </c>
       <c r="C311" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D311">
         <v>41.5625</v>
@@ -7732,18 +7729,18 @@
         <v>9</v>
       </c>
       <c r="H311" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B312">
         <v>7</v>
       </c>
       <c r="C312" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D312">
         <v>38.5625</v>
@@ -7755,18 +7752,18 @@
         <v>9</v>
       </c>
       <c r="H312" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B313">
         <v>8</v>
       </c>
       <c r="C313" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D313">
         <v>17.875</v>
@@ -7778,18 +7775,18 @@
         <v>9</v>
       </c>
       <c r="H313" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B314">
         <v>8</v>
       </c>
       <c r="C314" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D314">
         <v>53</v>
@@ -7801,18 +7798,18 @@
         <v>9</v>
       </c>
       <c r="H314" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B315">
         <v>8</v>
       </c>
       <c r="C315" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D315">
         <v>24.25</v>
@@ -7824,18 +7821,18 @@
         <v>9</v>
       </c>
       <c r="H315" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B316">
         <v>8</v>
       </c>
       <c r="C316" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D316">
         <v>48.375</v>
@@ -7847,18 +7844,18 @@
         <v>9</v>
       </c>
       <c r="H316" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B317">
         <v>8</v>
       </c>
       <c r="C317" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D317">
         <v>79.375</v>
@@ -7870,18 +7867,18 @@
         <v>9</v>
       </c>
       <c r="H317" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B318">
         <v>8</v>
       </c>
       <c r="C318" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D318">
         <v>60.375</v>
@@ -7893,18 +7890,18 @@
         <v>9</v>
       </c>
       <c r="H318" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
+        <v>49</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319" t="s">
         <v>50</v>
-      </c>
-      <c r="B319">
-        <v>1</v>
-      </c>
-      <c r="C319" t="s">
-        <v>51</v>
       </c>
       <c r="D319">
         <v>3255</v>
@@ -7913,21 +7910,21 @@
         <v>2011</v>
       </c>
       <c r="G319" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H319" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
+        <v>49</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320" t="s">
         <v>50</v>
-      </c>
-      <c r="B320">
-        <v>1</v>
-      </c>
-      <c r="C320" t="s">
-        <v>51</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -7936,21 +7933,21 @@
         <v>2015</v>
       </c>
       <c r="G320" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H320" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
+        <v>49</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321" t="s">
         <v>50</v>
-      </c>
-      <c r="B321">
-        <v>1</v>
-      </c>
-      <c r="C321" t="s">
-        <v>51</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -7959,21 +7956,21 @@
         <v>2018</v>
       </c>
       <c r="G321" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H321" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B322">
         <v>2</v>
       </c>
       <c r="C322" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D322">
         <v>3239</v>
@@ -7982,21 +7979,21 @@
         <v>2011</v>
       </c>
       <c r="G322" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H322" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B323">
         <v>2</v>
       </c>
       <c r="C323" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D323">
         <v>705</v>
@@ -8005,21 +8002,21 @@
         <v>2015</v>
       </c>
       <c r="G323" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H323" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B324">
         <v>2</v>
       </c>
       <c r="C324" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D324">
         <v>731</v>
@@ -8028,21 +8025,21 @@
         <v>2017</v>
       </c>
       <c r="G324" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H324" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B325">
         <v>2</v>
       </c>
       <c r="C325" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D325">
         <v>509</v>
@@ -8051,21 +8048,21 @@
         <v>2018</v>
       </c>
       <c r="G325" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H325" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B326">
         <v>3</v>
       </c>
       <c r="C326" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D326">
         <v>2708</v>
@@ -8074,21 +8071,21 @@
         <v>2011</v>
       </c>
       <c r="G326" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H326" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B327">
         <v>3</v>
       </c>
       <c r="C327" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D327">
         <v>147</v>
@@ -8097,21 +8094,21 @@
         <v>2015</v>
       </c>
       <c r="G327" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H327" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B328">
         <v>3</v>
       </c>
       <c r="C328" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D328">
         <v>164</v>
@@ -8120,21 +8117,21 @@
         <v>2017</v>
       </c>
       <c r="G328" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H328" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B329">
         <v>3</v>
       </c>
       <c r="C329" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D329">
         <v>723</v>
@@ -8143,21 +8140,21 @@
         <v>2018</v>
       </c>
       <c r="G329" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H329" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B330">
         <v>4</v>
       </c>
       <c r="C330" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D330">
         <v>1064</v>
@@ -8166,21 +8163,21 @@
         <v>1997</v>
       </c>
       <c r="G330" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H330" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B331">
         <v>4</v>
       </c>
       <c r="C331" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -8189,21 +8186,21 @@
         <v>2015</v>
       </c>
       <c r="G331" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H331" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B332">
         <v>4</v>
       </c>
       <c r="C332" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -8212,21 +8209,21 @@
         <v>2016</v>
       </c>
       <c r="G332" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H332" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B333">
         <v>4</v>
       </c>
       <c r="C333" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -8235,21 +8232,21 @@
         <v>2017</v>
       </c>
       <c r="G333" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H333" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B334">
         <v>4</v>
       </c>
       <c r="C334" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -8258,21 +8255,21 @@
         <v>2018</v>
       </c>
       <c r="G334" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H334" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B335">
         <v>5</v>
       </c>
       <c r="C335" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D335">
         <v>1078</v>
@@ -8281,21 +8278,21 @@
         <v>1997</v>
       </c>
       <c r="G335" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H335" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B336">
         <v>5</v>
       </c>
       <c r="C336" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D336">
         <v>2418</v>
@@ -8304,21 +8301,21 @@
         <v>2015</v>
       </c>
       <c r="G336" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H336" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B337">
         <v>5</v>
       </c>
       <c r="C337" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D337">
         <v>1529</v>
@@ -8327,21 +8324,21 @@
         <v>2016</v>
       </c>
       <c r="G337" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H337" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B338">
         <v>5</v>
       </c>
       <c r="C338" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D338">
         <v>55</v>
@@ -8350,21 +8347,21 @@
         <v>2017</v>
       </c>
       <c r="G338" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H338" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B339">
         <v>5</v>
       </c>
       <c r="C339" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D339">
         <v>1</v>
@@ -8373,21 +8370,21 @@
         <v>2018</v>
       </c>
       <c r="G339" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H339" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B340">
         <v>6</v>
       </c>
       <c r="C340" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D340">
         <v>2272</v>
@@ -8396,21 +8393,21 @@
         <v>2011</v>
       </c>
       <c r="G340" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H340" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B341">
         <v>6</v>
       </c>
       <c r="C341" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -8419,21 +8416,21 @@
         <v>2015</v>
       </c>
       <c r="G341" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H341" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B342">
         <v>6</v>
       </c>
       <c r="C342" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -8442,21 +8439,21 @@
         <v>2016</v>
       </c>
       <c r="G342" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H342" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B343">
         <v>6</v>
       </c>
       <c r="C343" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -8465,21 +8462,21 @@
         <v>2017</v>
       </c>
       <c r="G343" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H343" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B344">
         <v>6</v>
       </c>
       <c r="C344" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -8488,21 +8485,21 @@
         <v>2018</v>
       </c>
       <c r="G344" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H344" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B345">
         <v>7</v>
       </c>
       <c r="C345" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D345">
         <v>4575</v>
@@ -8511,21 +8508,21 @@
         <v>2011</v>
       </c>
       <c r="G345" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H345" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B346">
         <v>7</v>
       </c>
       <c r="C346" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D346">
         <v>1849</v>
@@ -8534,21 +8531,21 @@
         <v>2015</v>
       </c>
       <c r="G346" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H346" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B347">
         <v>7</v>
       </c>
       <c r="C347" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D347">
         <v>1637</v>
@@ -8557,21 +8554,21 @@
         <v>2017</v>
       </c>
       <c r="G347" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H347" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B348">
         <v>7</v>
       </c>
       <c r="C348" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D348">
         <v>5234</v>
@@ -8580,21 +8577,21 @@
         <v>2018</v>
       </c>
       <c r="G348" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H348" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B349">
         <v>8</v>
       </c>
       <c r="C349" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -8603,21 +8600,21 @@
         <v>2015</v>
       </c>
       <c r="G349" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H349" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B350">
         <v>8</v>
       </c>
       <c r="C350" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D350">
         <v>5</v>
@@ -8626,21 +8623,21 @@
         <v>2017</v>
       </c>
       <c r="G350" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H350" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B351">
         <v>8</v>
       </c>
       <c r="C351" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D351">
         <v>42</v>
@@ -8649,15 +8646,15 @@
         <v>2018</v>
       </c>
       <c r="G351" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H351" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -8669,15 +8666,15 @@
         <v>1963</v>
       </c>
       <c r="G352" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H352" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -8689,15 +8686,15 @@
         <v>1966</v>
       </c>
       <c r="G353" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H353" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -8709,15 +8706,15 @@
         <v>1969</v>
       </c>
       <c r="G354" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H354" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -8729,15 +8726,15 @@
         <v>1976</v>
       </c>
       <c r="G355" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H355" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -8749,15 +8746,15 @@
         <v>1977</v>
       </c>
       <c r="G356" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H356" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -8769,15 +8766,15 @@
         <v>1978</v>
       </c>
       <c r="G357" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H357" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -8789,15 +8786,15 @@
         <v>1979</v>
       </c>
       <c r="G358" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H358" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -8809,15 +8806,15 @@
         <v>1980</v>
       </c>
       <c r="G359" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H359" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -8829,15 +8826,15 @@
         <v>1981</v>
       </c>
       <c r="G360" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H360" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -8849,15 +8846,15 @@
         <v>1982</v>
       </c>
       <c r="G361" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H361" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -8869,15 +8866,15 @@
         <v>1983</v>
       </c>
       <c r="G362" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H362" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -8889,15 +8886,15 @@
         <v>1984</v>
       </c>
       <c r="G363" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H363" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -8909,15 +8906,15 @@
         <v>1985</v>
       </c>
       <c r="G364" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H364" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -8929,15 +8926,15 @@
         <v>1986</v>
       </c>
       <c r="G365" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H365" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -8949,15 +8946,15 @@
         <v>1987</v>
       </c>
       <c r="G366" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H366" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -8969,15 +8966,15 @@
         <v>1988</v>
       </c>
       <c r="G367" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H367" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -8989,15 +8986,15 @@
         <v>1989</v>
       </c>
       <c r="G368" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H368" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -9009,15 +9006,15 @@
         <v>1990</v>
       </c>
       <c r="G369" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H369" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -9029,15 +9026,15 @@
         <v>1995</v>
       </c>
       <c r="G370" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H370" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -9049,15 +9046,15 @@
         <v>2001</v>
       </c>
       <c r="G371" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H371" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -9069,15 +9066,15 @@
         <v>2002</v>
       </c>
       <c r="G372" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H372" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -9089,15 +9086,15 @@
         <v>2003</v>
       </c>
       <c r="G373" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H373" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -9109,15 +9106,15 @@
         <v>2004</v>
       </c>
       <c r="G374" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H374" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -9129,15 +9126,15 @@
         <v>2005</v>
       </c>
       <c r="G375" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H375" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -9149,15 +9146,15 @@
         <v>2006</v>
       </c>
       <c r="G376" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H376" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -9169,15 +9166,15 @@
         <v>2007</v>
       </c>
       <c r="G377" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H377" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -9189,15 +9186,15 @@
         <v>2001</v>
       </c>
       <c r="G378" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H378" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -9209,15 +9206,15 @@
         <v>2002</v>
       </c>
       <c r="G379" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H379" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -9229,15 +9226,15 @@
         <v>2003</v>
       </c>
       <c r="G380" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H380" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -9249,15 +9246,15 @@
         <v>2004</v>
       </c>
       <c r="G381" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H381" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -9269,15 +9266,15 @@
         <v>2005</v>
       </c>
       <c r="G382" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H382" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -9289,15 +9286,15 @@
         <v>2006</v>
       </c>
       <c r="G383" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H383" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -9309,15 +9306,15 @@
         <v>2007</v>
       </c>
       <c r="G384" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H384" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -9329,15 +9326,15 @@
         <v>2008</v>
       </c>
       <c r="G385" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H385" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -9349,15 +9346,15 @@
         <v>2009</v>
       </c>
       <c r="G386" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H386" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -9369,15 +9366,15 @@
         <v>2002</v>
       </c>
       <c r="G387" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H387" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -9389,15 +9386,15 @@
         <v>2003</v>
       </c>
       <c r="G388" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H388" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -9409,15 +9406,15 @@
         <v>2004</v>
       </c>
       <c r="G389" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H389" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -9429,15 +9426,15 @@
         <v>2005</v>
       </c>
       <c r="G390" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H390" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -9449,15 +9446,15 @@
         <v>2006</v>
       </c>
       <c r="G391" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H391" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -9469,15 +9466,15 @@
         <v>2007</v>
       </c>
       <c r="G392" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H392" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -9489,21 +9486,21 @@
         <v>2008</v>
       </c>
       <c r="G393" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H393" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
+        <v>62</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394" t="s">
         <v>63</v>
-      </c>
-      <c r="B394">
-        <v>1</v>
-      </c>
-      <c r="C394" t="s">
-        <v>64</v>
       </c>
       <c r="D394">
         <v>25</v>
@@ -9512,21 +9509,21 @@
         <v>1911</v>
       </c>
       <c r="G394" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H394" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
+        <v>62</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395" t="s">
         <v>63</v>
-      </c>
-      <c r="B395">
-        <v>1</v>
-      </c>
-      <c r="C395" t="s">
-        <v>64</v>
       </c>
       <c r="D395">
         <v>40</v>
@@ -9535,21 +9532,21 @@
         <v>1912</v>
       </c>
       <c r="G395" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H395" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
+        <v>62</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396" t="s">
         <v>63</v>
-      </c>
-      <c r="B396">
-        <v>1</v>
-      </c>
-      <c r="C396" t="s">
-        <v>64</v>
       </c>
       <c r="D396">
         <v>52</v>
@@ -9558,21 +9555,21 @@
         <v>1913</v>
       </c>
       <c r="G396" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H396" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
+        <v>62</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397" t="s">
         <v>63</v>
-      </c>
-      <c r="B397">
-        <v>1</v>
-      </c>
-      <c r="C397" t="s">
-        <v>64</v>
       </c>
       <c r="D397">
         <v>75</v>
@@ -9581,21 +9578,21 @@
         <v>1914</v>
       </c>
       <c r="G397" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H397" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
+        <v>62</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398" t="s">
         <v>63</v>
-      </c>
-      <c r="B398">
-        <v>1</v>
-      </c>
-      <c r="C398" t="s">
-        <v>64</v>
       </c>
       <c r="D398">
         <v>92</v>
@@ -9604,21 +9601,21 @@
         <v>1915</v>
       </c>
       <c r="G398" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H398" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
+        <v>62</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399" t="s">
         <v>63</v>
-      </c>
-      <c r="B399">
-        <v>1</v>
-      </c>
-      <c r="C399" t="s">
-        <v>64</v>
       </c>
       <c r="D399">
         <v>111</v>
@@ -9627,21 +9624,21 @@
         <v>1916</v>
       </c>
       <c r="G399" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H399" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
+        <v>62</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400" t="s">
         <v>63</v>
-      </c>
-      <c r="B400">
-        <v>1</v>
-      </c>
-      <c r="C400" t="s">
-        <v>64</v>
       </c>
       <c r="D400">
         <v>144</v>
@@ -9650,21 +9647,21 @@
         <v>1917</v>
       </c>
       <c r="G400" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H400" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
+        <v>62</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401" t="s">
         <v>63</v>
-      </c>
-      <c r="B401">
-        <v>1</v>
-      </c>
-      <c r="C401" t="s">
-        <v>64</v>
       </c>
       <c r="D401">
         <v>155</v>
@@ -9673,21 +9670,21 @@
         <v>1918</v>
       </c>
       <c r="G401" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H401" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
+        <v>62</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402" t="s">
         <v>63</v>
-      </c>
-      <c r="B402">
-        <v>1</v>
-      </c>
-      <c r="C402" t="s">
-        <v>64</v>
       </c>
       <c r="D402">
         <v>164</v>
@@ -9696,21 +9693,21 @@
         <v>1919</v>
       </c>
       <c r="G402" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H402" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
+        <v>62</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403" t="s">
         <v>63</v>
-      </c>
-      <c r="B403">
-        <v>1</v>
-      </c>
-      <c r="C403" t="s">
-        <v>64</v>
       </c>
       <c r="D403">
         <v>192</v>
@@ -9719,21 +9716,21 @@
         <v>1920</v>
       </c>
       <c r="G403" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H403" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
+        <v>62</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404" t="s">
         <v>63</v>
-      </c>
-      <c r="B404">
-        <v>1</v>
-      </c>
-      <c r="C404" t="s">
-        <v>64</v>
       </c>
       <c r="D404">
         <v>250</v>
@@ -9742,21 +9739,21 @@
         <v>1921</v>
       </c>
       <c r="G404" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H404" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
+        <v>62</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405" t="s">
         <v>63</v>
-      </c>
-      <c r="B405">
-        <v>1</v>
-      </c>
-      <c r="C405" t="s">
-        <v>64</v>
       </c>
       <c r="D405">
         <v>190</v>
@@ -9765,21 +9762,21 @@
         <v>1922</v>
       </c>
       <c r="G405" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H405" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
+        <v>62</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406" t="s">
         <v>63</v>
-      </c>
-      <c r="B406">
-        <v>1</v>
-      </c>
-      <c r="C406" t="s">
-        <v>64</v>
       </c>
       <c r="D406">
         <v>150</v>
@@ -9788,21 +9785,21 @@
         <v>1923</v>
       </c>
       <c r="G406" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H406" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
+        <v>62</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407" t="s">
         <v>63</v>
-      </c>
-      <c r="B407">
-        <v>1</v>
-      </c>
-      <c r="C407" t="s">
-        <v>64</v>
       </c>
       <c r="D407">
         <v>200</v>
@@ -9811,21 +9808,21 @@
         <v>1924</v>
       </c>
       <c r="G407" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H407" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
+        <v>62</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408" t="s">
         <v>63</v>
-      </c>
-      <c r="B408">
-        <v>1</v>
-      </c>
-      <c r="C408" t="s">
-        <v>64</v>
       </c>
       <c r="D408">
         <v>225</v>
@@ -9834,21 +9831,21 @@
         <v>1925</v>
       </c>
       <c r="G408" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H408" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
+        <v>62</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+      <c r="C409" t="s">
         <v>63</v>
-      </c>
-      <c r="B409">
-        <v>1</v>
-      </c>
-      <c r="C409" t="s">
-        <v>64</v>
       </c>
       <c r="D409">
         <v>250</v>
@@ -9857,21 +9854,21 @@
         <v>1926</v>
       </c>
       <c r="G409" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H409" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
+        <v>62</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410" t="s">
         <v>63</v>
-      </c>
-      <c r="B410">
-        <v>1</v>
-      </c>
-      <c r="C410" t="s">
-        <v>64</v>
       </c>
       <c r="D410">
         <v>250</v>
@@ -9880,21 +9877,21 @@
         <v>1927</v>
       </c>
       <c r="G410" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H410" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
+        <v>62</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+      <c r="C411" t="s">
         <v>63</v>
-      </c>
-      <c r="B411">
-        <v>1</v>
-      </c>
-      <c r="C411" t="s">
-        <v>64</v>
       </c>
       <c r="D411">
         <v>315</v>
@@ -9903,21 +9900,21 @@
         <v>1928</v>
       </c>
       <c r="G411" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H411" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
+        <v>62</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="C412" t="s">
         <v>63</v>
-      </c>
-      <c r="B412">
-        <v>1</v>
-      </c>
-      <c r="C412" t="s">
-        <v>64</v>
       </c>
       <c r="D412">
         <v>329</v>
@@ -9926,21 +9923,21 @@
         <v>1929</v>
       </c>
       <c r="G412" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H412" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
+        <v>62</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="C413" t="s">
         <v>63</v>
-      </c>
-      <c r="B413">
-        <v>1</v>
-      </c>
-      <c r="C413" t="s">
-        <v>64</v>
       </c>
       <c r="D413">
         <v>404</v>
@@ -9949,21 +9946,21 @@
         <v>1930</v>
       </c>
       <c r="G413" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H413" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
+        <v>62</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414" t="s">
         <v>63</v>
-      </c>
-      <c r="B414">
-        <v>1</v>
-      </c>
-      <c r="C414" t="s">
-        <v>64</v>
       </c>
       <c r="D414">
         <v>453</v>
@@ -9972,21 +9969,21 @@
         <v>1931</v>
       </c>
       <c r="G414" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H414" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
+        <v>62</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+      <c r="C415" t="s">
         <v>63</v>
-      </c>
-      <c r="B415">
-        <v>1</v>
-      </c>
-      <c r="C415" t="s">
-        <v>64</v>
       </c>
       <c r="D415">
         <v>485</v>
@@ -9995,21 +9992,21 @@
         <v>1932</v>
       </c>
       <c r="G415" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H415" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
+        <v>62</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416" t="s">
         <v>63</v>
-      </c>
-      <c r="B416">
-        <v>1</v>
-      </c>
-      <c r="C416" t="s">
-        <v>64</v>
       </c>
       <c r="D416">
         <v>673</v>
@@ -10018,21 +10015,21 @@
         <v>1933</v>
       </c>
       <c r="G416" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H416" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
+        <v>62</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+      <c r="C417" t="s">
         <v>63</v>
-      </c>
-      <c r="B417">
-        <v>1</v>
-      </c>
-      <c r="C417" t="s">
-        <v>64</v>
       </c>
       <c r="D417">
         <v>820</v>
@@ -10041,21 +10038,21 @@
         <v>1934</v>
       </c>
       <c r="G417" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H417" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
+        <v>62</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418" t="s">
         <v>63</v>
-      </c>
-      <c r="B418">
-        <v>1</v>
-      </c>
-      <c r="C418" t="s">
-        <v>64</v>
       </c>
       <c r="D418">
         <v>1162</v>
@@ -10064,21 +10061,21 @@
         <v>1935</v>
       </c>
       <c r="G418" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H418" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
+        <v>62</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419" t="s">
         <v>63</v>
-      </c>
-      <c r="B419">
-        <v>1</v>
-      </c>
-      <c r="C419" t="s">
-        <v>64</v>
       </c>
       <c r="D419">
         <v>1388</v>
@@ -10087,21 +10084,21 @@
         <v>1936</v>
       </c>
       <c r="G419" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H419" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
+        <v>62</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420" t="s">
         <v>63</v>
-      </c>
-      <c r="B420">
-        <v>1</v>
-      </c>
-      <c r="C420" t="s">
-        <v>64</v>
       </c>
       <c r="D420">
         <v>1673</v>
@@ -10110,21 +10107,21 @@
         <v>1937</v>
       </c>
       <c r="G420" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H420" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
+        <v>62</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+      <c r="C421" t="s">
         <v>63</v>
-      </c>
-      <c r="B421">
-        <v>1</v>
-      </c>
-      <c r="C421" t="s">
-        <v>64</v>
       </c>
       <c r="D421">
         <v>1943</v>
@@ -10133,21 +10130,21 @@
         <v>1938</v>
       </c>
       <c r="G421" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H421" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
+        <v>62</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422" t="s">
         <v>63</v>
-      </c>
-      <c r="B422">
-        <v>1</v>
-      </c>
-      <c r="C422" t="s">
-        <v>64</v>
       </c>
       <c r="D422">
         <v>1800</v>
@@ -10156,21 +10153,21 @@
         <v>1939</v>
       </c>
       <c r="G422" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H422" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
+        <v>62</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+      <c r="C423" t="s">
         <v>63</v>
-      </c>
-      <c r="B423">
-        <v>1</v>
-      </c>
-      <c r="C423" t="s">
-        <v>64</v>
       </c>
       <c r="D423">
         <v>962</v>
@@ -10179,21 +10176,21 @@
         <v>1940</v>
       </c>
       <c r="G423" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H423" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
+        <v>62</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424" t="s">
         <v>63</v>
-      </c>
-      <c r="B424">
-        <v>1</v>
-      </c>
-      <c r="C424" t="s">
-        <v>64</v>
       </c>
       <c r="D424">
         <v>850</v>
@@ -10202,21 +10199,21 @@
         <v>1941</v>
       </c>
       <c r="G424" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H424" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
+        <v>62</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+      <c r="C425" t="s">
         <v>63</v>
-      </c>
-      <c r="B425">
-        <v>1</v>
-      </c>
-      <c r="C425" t="s">
-        <v>64</v>
       </c>
       <c r="D425">
         <v>240</v>
@@ -10225,21 +10222,21 @@
         <v>1946</v>
       </c>
       <c r="G425" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H425" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
+        <v>62</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426" t="s">
         <v>63</v>
-      </c>
-      <c r="B426">
-        <v>1</v>
-      </c>
-      <c r="C426" t="s">
-        <v>64</v>
       </c>
       <c r="D426">
         <v>250</v>
@@ -10248,21 +10245,21 @@
         <v>1947</v>
       </c>
       <c r="G426" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H426" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
+        <v>62</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+      <c r="C427" t="s">
         <v>63</v>
-      </c>
-      <c r="B427">
-        <v>1</v>
-      </c>
-      <c r="C427" t="s">
-        <v>64</v>
       </c>
       <c r="D427">
         <v>120</v>
@@ -10271,21 +10268,21 @@
         <v>1948</v>
       </c>
       <c r="G427" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H427" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
+        <v>62</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+      <c r="C428" t="s">
         <v>63</v>
-      </c>
-      <c r="B428">
-        <v>1</v>
-      </c>
-      <c r="C428" t="s">
-        <v>64</v>
       </c>
       <c r="D428">
         <v>60</v>
@@ -10294,21 +10291,21 @@
         <v>1949</v>
       </c>
       <c r="G428" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H428" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
+        <v>62</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+      <c r="C429" t="s">
         <v>63</v>
-      </c>
-      <c r="B429">
-        <v>1</v>
-      </c>
-      <c r="C429" t="s">
-        <v>64</v>
       </c>
       <c r="D429">
         <v>8</v>
@@ -10317,21 +10314,21 @@
         <v>1950</v>
       </c>
       <c r="G429" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H429" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B430">
         <v>2</v>
       </c>
       <c r="C430" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D430">
         <v>15</v>
@@ -10340,21 +10337,21 @@
         <v>1911</v>
       </c>
       <c r="G430" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H430" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B431">
         <v>2</v>
       </c>
       <c r="C431" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D431">
         <v>25</v>
@@ -10363,21 +10360,21 @@
         <v>1912</v>
       </c>
       <c r="G431" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H431" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B432">
         <v>2</v>
       </c>
       <c r="C432" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D432">
         <v>38</v>
@@ -10386,21 +10383,21 @@
         <v>1913</v>
       </c>
       <c r="G432" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H432" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B433">
         <v>2</v>
       </c>
       <c r="C433" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D433">
         <v>58</v>
@@ -10409,21 +10406,21 @@
         <v>1914</v>
       </c>
       <c r="G433" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H433" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B434">
         <v>2</v>
       </c>
       <c r="C434" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D434">
         <v>62</v>
@@ -10432,21 +10429,21 @@
         <v>1915</v>
       </c>
       <c r="G434" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H434" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B435">
         <v>2</v>
       </c>
       <c r="C435" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D435">
         <v>87</v>
@@ -10455,21 +10452,21 @@
         <v>1916</v>
       </c>
       <c r="G435" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H435" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B436">
         <v>2</v>
       </c>
       <c r="C436" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D436">
         <v>96</v>
@@ -10478,21 +10475,21 @@
         <v>1917</v>
       </c>
       <c r="G436" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H436" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B437">
         <v>2</v>
       </c>
       <c r="C437" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D437">
         <v>132</v>
@@ -10501,21 +10498,21 @@
         <v>1918</v>
       </c>
       <c r="G437" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H437" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B438">
         <v>2</v>
       </c>
       <c r="C438" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D438">
         <v>145</v>
@@ -10524,21 +10521,21 @@
         <v>1919</v>
       </c>
       <c r="G438" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H438" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B439">
         <v>2</v>
       </c>
       <c r="C439" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D439">
         <v>156</v>
@@ -10547,21 +10544,21 @@
         <v>1920</v>
       </c>
       <c r="G439" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H439" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B440">
         <v>2</v>
       </c>
       <c r="C440" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D440">
         <v>179</v>
@@ -10570,21 +10567,21 @@
         <v>1921</v>
       </c>
       <c r="G440" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H440" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B441">
         <v>2</v>
       </c>
       <c r="C441" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D441">
         <v>222</v>
@@ -10593,21 +10590,21 @@
         <v>1922</v>
       </c>
       <c r="G441" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H441" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B442">
         <v>2</v>
       </c>
       <c r="C442" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D442">
         <v>179</v>
@@ -10616,21 +10613,21 @@
         <v>1923</v>
       </c>
       <c r="G442" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H442" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B443">
         <v>2</v>
       </c>
       <c r="C443" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D443">
         <v>168</v>
@@ -10639,21 +10636,21 @@
         <v>1924</v>
       </c>
       <c r="G443" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H443" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B444">
         <v>2</v>
       </c>
       <c r="C444" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D444">
         <v>77</v>
@@ -10662,21 +10659,21 @@
         <v>1925</v>
       </c>
       <c r="G444" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H444" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B445">
         <v>2</v>
       </c>
       <c r="C445" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D445">
         <v>60</v>
@@ -10685,21 +10682,21 @@
         <v>1926</v>
       </c>
       <c r="G445" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H445" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B446">
         <v>2</v>
       </c>
       <c r="C446" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D446">
         <v>50</v>
@@ -10708,21 +10705,21 @@
         <v>1927</v>
       </c>
       <c r="G446" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H446" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B447">
         <v>2</v>
       </c>
       <c r="C447" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D447">
         <v>66</v>
@@ -10731,21 +10728,21 @@
         <v>1928</v>
       </c>
       <c r="G447" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H447" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B448">
         <v>2</v>
       </c>
       <c r="C448" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D448">
         <v>45</v>
@@ -10754,21 +10751,21 @@
         <v>1929</v>
       </c>
       <c r="G448" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H448" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B449">
         <v>2</v>
       </c>
       <c r="C449" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D449">
         <v>51</v>
@@ -10777,21 +10774,21 @@
         <v>1930</v>
       </c>
       <c r="G449" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H449" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B450">
         <v>2</v>
       </c>
       <c r="C450" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D450">
         <v>52</v>
@@ -10800,21 +10797,21 @@
         <v>1931</v>
       </c>
       <c r="G450" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H450" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B451">
         <v>2</v>
       </c>
       <c r="C451" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D451">
         <v>57</v>
@@ -10823,21 +10820,21 @@
         <v>1932</v>
       </c>
       <c r="G451" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H451" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B452">
         <v>2</v>
       </c>
       <c r="C452" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D452">
         <v>63</v>
@@ -10846,21 +10843,21 @@
         <v>1933</v>
       </c>
       <c r="G452" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H452" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B453">
         <v>2</v>
       </c>
       <c r="C453" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D453">
         <v>72</v>
@@ -10869,21 +10866,21 @@
         <v>1934</v>
       </c>
       <c r="G453" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H453" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B454">
         <v>2</v>
       </c>
       <c r="C454" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D454">
         <v>74</v>
@@ -10892,21 +10889,21 @@
         <v>1935</v>
       </c>
       <c r="G454" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H454" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B455">
         <v>2</v>
       </c>
       <c r="C455" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D455">
         <v>44</v>
@@ -10915,21 +10912,21 @@
         <v>1936</v>
       </c>
       <c r="G455" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H455" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B456">
         <v>2</v>
       </c>
       <c r="C456" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D456">
         <v>40</v>
@@ -10938,21 +10935,21 @@
         <v>1937</v>
       </c>
       <c r="G456" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H456" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B457">
         <v>2</v>
       </c>
       <c r="C457" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D457">
         <v>38</v>
@@ -10961,21 +10958,21 @@
         <v>1938</v>
       </c>
       <c r="G457" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H457" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B458">
         <v>2</v>
       </c>
       <c r="C458" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D458">
         <v>42</v>
@@ -10984,21 +10981,21 @@
         <v>1939</v>
       </c>
       <c r="G458" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H458" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B459">
         <v>2</v>
       </c>
       <c r="C459" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D459">
         <v>54</v>
@@ -11007,21 +11004,21 @@
         <v>1940</v>
       </c>
       <c r="G459" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H459" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B460">
         <v>2</v>
       </c>
       <c r="C460" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D460">
         <v>56</v>
@@ -11030,21 +11027,21 @@
         <v>1941</v>
       </c>
       <c r="G460" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H460" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B461">
         <v>2</v>
       </c>
       <c r="C461" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D461">
         <v>41</v>
@@ -11053,21 +11050,21 @@
         <v>1945</v>
       </c>
       <c r="G461" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H461" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B462">
         <v>2</v>
       </c>
       <c r="C462" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D462">
         <v>38</v>
@@ -11076,21 +11073,21 @@
         <v>1946</v>
       </c>
       <c r="G462" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H462" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B463">
         <v>2</v>
       </c>
       <c r="C463" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D463">
         <v>20</v>
@@ -11099,21 +11096,21 @@
         <v>1947</v>
       </c>
       <c r="G463" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H463" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B464">
         <v>2</v>
       </c>
       <c r="C464" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D464">
         <v>10</v>
@@ -11122,21 +11119,21 @@
         <v>1948</v>
       </c>
       <c r="G464" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H464" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B465">
         <v>2</v>
       </c>
       <c r="C465" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D465">
         <v>30</v>
@@ -11145,21 +11142,21 @@
         <v>1949</v>
       </c>
       <c r="G465" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H465" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
+        <v>65</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466" t="s">
         <v>66</v>
-      </c>
-      <c r="B466">
-        <v>1</v>
-      </c>
-      <c r="C466" t="s">
-        <v>67</v>
       </c>
       <c r="D466">
         <v>29</v>
@@ -11168,21 +11165,21 @@
         <v>1944</v>
       </c>
       <c r="G466" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H466" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
+        <v>65</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467" t="s">
         <v>66</v>
-      </c>
-      <c r="B467">
-        <v>1</v>
-      </c>
-      <c r="C467" t="s">
-        <v>67</v>
       </c>
       <c r="D467">
         <v>1350</v>
@@ -11191,21 +11188,21 @@
         <v>1957</v>
       </c>
       <c r="G467" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H467" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
+        <v>65</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+      <c r="C468" t="s">
         <v>66</v>
-      </c>
-      <c r="B468">
-        <v>1</v>
-      </c>
-      <c r="C468" t="s">
-        <v>67</v>
       </c>
       <c r="D468">
         <v>6000</v>
@@ -11214,21 +11211,21 @@
         <v>1963</v>
       </c>
       <c r="G468" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H468" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
+        <v>65</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+      <c r="C469" t="s">
         <v>66</v>
-      </c>
-      <c r="B469">
-        <v>1</v>
-      </c>
-      <c r="C469" t="s">
-        <v>67</v>
       </c>
       <c r="D469">
         <v>42</v>
@@ -11237,10 +11234,10 @@
         <v>1966</v>
       </c>
       <c r="G469" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H469" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/BoomBust_DatafromTables.xlsx
+++ b/data/BoomBust_DatafromTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4f5e485ed766aa2/Pictures/Documents/Journal Publications/Manuscripts/Dissertation/boom-bust/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1489" documentId="8_{70A43E18-57AA-40B9-A6AA-B8B1D80A3999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{161B0ACB-3549-4428-842D-DF04F882C4F3}"/>
+  <xr:revisionPtr revIDLastSave="1490" documentId="8_{70A43E18-57AA-40B9-A6AA-B8B1D80A3999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EDEE2D8-F7C6-4F5A-B17A-9F36530C6280}"/>
   <bookViews>
-    <workbookView xWindow="1584" yWindow="1896" windowWidth="17304" windowHeight="8892" xr2:uid="{8025EA18-20DD-4AB1-8E18-97042F4F59FB}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8025EA18-20DD-4AB1-8E18-97042F4F59FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,9 +242,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>mon-Year</t>
-  </si>
-  <si>
     <t>Density (n/m^2)</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Density (n/0.25m^2)</t>
+  </si>
+  <si>
+    <t>Mon-Year</t>
   </si>
 </sst>
 </file>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A607EED-BDE6-4E7B-8223-CBB56B106F2E}">
   <dimension ref="A1:H469"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G319" sqref="G319"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2309,10 +2309,10 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H78" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2335,10 +2335,10 @@
         <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H79" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2361,10 +2361,10 @@
         <v>6</v>
       </c>
       <c r="G80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H80" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2387,10 +2387,10 @@
         <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H81" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2413,10 +2413,10 @@
         <v>5</v>
       </c>
       <c r="G82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H82" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -2439,10 +2439,10 @@
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H83" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -2465,10 +2465,10 @@
         <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H84" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -2491,10 +2491,10 @@
         <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H85" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -2517,10 +2517,10 @@
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H86" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -2543,10 +2543,10 @@
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H87" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -2569,10 +2569,10 @@
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H88" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -2595,10 +2595,10 @@
         <v>6</v>
       </c>
       <c r="G89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H89" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -2621,10 +2621,10 @@
         <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H90" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -2647,10 +2647,10 @@
         <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H91" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H92" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -2699,10 +2699,10 @@
         <v>6</v>
       </c>
       <c r="G93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H93" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -2725,10 +2725,10 @@
         <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H94" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -2749,7 +2749,7 @@
         <v>2007</v>
       </c>
       <c r="G95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H95" t="s">
         <v>67</v>
@@ -2773,7 +2773,7 @@
         <v>2012</v>
       </c>
       <c r="G96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H96" t="s">
         <v>67</v>
@@ -2797,7 +2797,7 @@
         <v>2013</v>
       </c>
       <c r="G97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H97" t="s">
         <v>67</v>
@@ -2821,7 +2821,7 @@
         <v>2014</v>
       </c>
       <c r="G98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H98" t="s">
         <v>67</v>
@@ -2844,7 +2844,7 @@
         <v>1995</v>
       </c>
       <c r="G99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H99" t="s">
         <v>67</v>
@@ -2867,7 +2867,7 @@
         <v>1999</v>
       </c>
       <c r="G100" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H100" t="s">
         <v>67</v>
@@ -2890,7 +2890,7 @@
         <v>2003</v>
       </c>
       <c r="G101" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H101" t="s">
         <v>67</v>
@@ -2913,7 +2913,7 @@
         <v>1995</v>
       </c>
       <c r="G102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H102" t="s">
         <v>67</v>
@@ -2936,7 +2936,7 @@
         <v>1999</v>
       </c>
       <c r="G103" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H103" t="s">
         <v>67</v>
@@ -2959,7 +2959,7 @@
         <v>2003</v>
       </c>
       <c r="G104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H104" t="s">
         <v>67</v>
@@ -2982,7 +2982,7 @@
         <v>1995</v>
       </c>
       <c r="G105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H105" t="s">
         <v>67</v>
@@ -3005,7 +3005,7 @@
         <v>1999</v>
       </c>
       <c r="G106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H106" t="s">
         <v>67</v>
@@ -3028,7 +3028,7 @@
         <v>2003</v>
       </c>
       <c r="G107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H107" t="s">
         <v>67</v>
@@ -3048,7 +3048,7 @@
         <v>1958</v>
       </c>
       <c r="G108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H108" t="s">
         <v>67</v>
@@ -3068,7 +3068,7 @@
         <v>1963</v>
       </c>
       <c r="G109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H109" t="s">
         <v>67</v>
@@ -3088,7 +3088,7 @@
         <v>1964</v>
       </c>
       <c r="G110" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H110" t="s">
         <v>67</v>
@@ -3108,7 +3108,7 @@
         <v>1965</v>
       </c>
       <c r="G111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H111" t="s">
         <v>67</v>
@@ -3128,7 +3128,7 @@
         <v>1966</v>
       </c>
       <c r="G112" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H112" t="s">
         <v>67</v>
@@ -3148,7 +3148,7 @@
         <v>1967</v>
       </c>
       <c r="G113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H113" t="s">
         <v>67</v>
@@ -3168,7 +3168,7 @@
         <v>1969</v>
       </c>
       <c r="G114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H114" t="s">
         <v>67</v>
@@ -3188,7 +3188,7 @@
         <v>1975</v>
       </c>
       <c r="G115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H115" t="s">
         <v>67</v>
@@ -3208,7 +3208,7 @@
         <v>1979</v>
       </c>
       <c r="G116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H116" t="s">
         <v>67</v>
@@ -3228,7 +3228,7 @@
         <v>1980</v>
       </c>
       <c r="G117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H117" t="s">
         <v>67</v>
@@ -3248,7 +3248,7 @@
         <v>1982</v>
       </c>
       <c r="G118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H118" t="s">
         <v>67</v>
@@ -3268,7 +3268,7 @@
         <v>1983</v>
       </c>
       <c r="G119" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H119" t="s">
         <v>67</v>
@@ -3288,7 +3288,7 @@
         <v>1999</v>
       </c>
       <c r="G120" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H120" t="s">
         <v>67</v>
@@ -3308,7 +3308,7 @@
         <v>2000</v>
       </c>
       <c r="G121" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H121" t="s">
         <v>67</v>
@@ -3328,7 +3328,7 @@
         <v>2002</v>
       </c>
       <c r="G122" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H122" t="s">
         <v>67</v>
@@ -3348,7 +3348,7 @@
         <v>2003</v>
       </c>
       <c r="G123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H123" t="s">
         <v>67</v>
@@ -3368,7 +3368,7 @@
         <v>2004</v>
       </c>
       <c r="G124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H124" t="s">
         <v>67</v>
@@ -3388,7 +3388,7 @@
         <v>1958</v>
       </c>
       <c r="G125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H125" t="s">
         <v>67</v>
@@ -3408,7 +3408,7 @@
         <v>1963</v>
       </c>
       <c r="G126" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H126" t="s">
         <v>67</v>
@@ -3428,7 +3428,7 @@
         <v>1964</v>
       </c>
       <c r="G127" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H127" t="s">
         <v>67</v>
@@ -3448,7 +3448,7 @@
         <v>1965</v>
       </c>
       <c r="G128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H128" t="s">
         <v>67</v>
@@ -3468,7 +3468,7 @@
         <v>1966</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H129" t="s">
         <v>67</v>
@@ -3488,7 +3488,7 @@
         <v>1967</v>
       </c>
       <c r="G130" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H130" t="s">
         <v>67</v>
@@ -3508,7 +3508,7 @@
         <v>1969</v>
       </c>
       <c r="G131" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H131" t="s">
         <v>67</v>
@@ -3528,7 +3528,7 @@
         <v>1975</v>
       </c>
       <c r="G132" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H132" t="s">
         <v>67</v>
@@ -3548,7 +3548,7 @@
         <v>1979</v>
       </c>
       <c r="G133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H133" t="s">
         <v>67</v>
@@ -3568,7 +3568,7 @@
         <v>1980</v>
       </c>
       <c r="G134" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H134" t="s">
         <v>67</v>
@@ -3588,7 +3588,7 @@
         <v>1982</v>
       </c>
       <c r="G135" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H135" t="s">
         <v>67</v>
@@ -3608,7 +3608,7 @@
         <v>1983</v>
       </c>
       <c r="G136" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H136" t="s">
         <v>67</v>
@@ -3628,7 +3628,7 @@
         <v>1999</v>
       </c>
       <c r="G137" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H137" t="s">
         <v>67</v>
@@ -3648,7 +3648,7 @@
         <v>2000</v>
       </c>
       <c r="G138" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H138" t="s">
         <v>67</v>
@@ -3668,7 +3668,7 @@
         <v>2002</v>
       </c>
       <c r="G139" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H139" t="s">
         <v>67</v>
@@ -3688,7 +3688,7 @@
         <v>2003</v>
       </c>
       <c r="G140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H140" t="s">
         <v>67</v>
@@ -3708,7 +3708,7 @@
         <v>2004</v>
       </c>
       <c r="G141" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H141" t="s">
         <v>67</v>
@@ -3728,7 +3728,7 @@
         <v>1958</v>
       </c>
       <c r="G142" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H142" t="s">
         <v>67</v>
@@ -3748,7 +3748,7 @@
         <v>1963</v>
       </c>
       <c r="G143" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H143" t="s">
         <v>67</v>
@@ -3768,7 +3768,7 @@
         <v>1964</v>
       </c>
       <c r="G144" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H144" t="s">
         <v>67</v>
@@ -3788,7 +3788,7 @@
         <v>1965</v>
       </c>
       <c r="G145" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H145" t="s">
         <v>67</v>
@@ -3808,7 +3808,7 @@
         <v>1966</v>
       </c>
       <c r="G146" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H146" t="s">
         <v>67</v>
@@ -3828,7 +3828,7 @@
         <v>1967</v>
       </c>
       <c r="G147" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H147" t="s">
         <v>67</v>
@@ -3848,7 +3848,7 @@
         <v>1969</v>
       </c>
       <c r="G148" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H148" t="s">
         <v>67</v>
@@ -3868,7 +3868,7 @@
         <v>1975</v>
       </c>
       <c r="G149" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H149" t="s">
         <v>67</v>
@@ -3888,7 +3888,7 @@
         <v>1979</v>
       </c>
       <c r="G150" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H150" t="s">
         <v>67</v>
@@ -3908,7 +3908,7 @@
         <v>1980</v>
       </c>
       <c r="G151" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H151" t="s">
         <v>67</v>
@@ -3928,7 +3928,7 @@
         <v>1982</v>
       </c>
       <c r="G152" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H152" t="s">
         <v>67</v>
@@ -3948,7 +3948,7 @@
         <v>1983</v>
       </c>
       <c r="G153" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H153" t="s">
         <v>67</v>
@@ -3968,7 +3968,7 @@
         <v>1999</v>
       </c>
       <c r="G154" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H154" t="s">
         <v>67</v>
@@ -3988,7 +3988,7 @@
         <v>2000</v>
       </c>
       <c r="G155" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H155" t="s">
         <v>67</v>
@@ -4008,7 +4008,7 @@
         <v>2002</v>
       </c>
       <c r="G156" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H156" t="s">
         <v>67</v>
@@ -4028,7 +4028,7 @@
         <v>2003</v>
       </c>
       <c r="G157" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H157" t="s">
         <v>67</v>
@@ -4048,7 +4048,7 @@
         <v>2004</v>
       </c>
       <c r="G158" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H158" t="s">
         <v>67</v>
@@ -4068,7 +4068,7 @@
         <v>1958</v>
       </c>
       <c r="G159" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H159" t="s">
         <v>67</v>
@@ -4088,7 +4088,7 @@
         <v>1963</v>
       </c>
       <c r="G160" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H160" t="s">
         <v>67</v>
@@ -4108,7 +4108,7 @@
         <v>1964</v>
       </c>
       <c r="G161" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H161" t="s">
         <v>67</v>
@@ -4128,7 +4128,7 @@
         <v>1965</v>
       </c>
       <c r="G162" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H162" t="s">
         <v>67</v>
@@ -4148,7 +4148,7 @@
         <v>1966</v>
       </c>
       <c r="G163" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H163" t="s">
         <v>67</v>
@@ -4168,7 +4168,7 @@
         <v>1967</v>
       </c>
       <c r="G164" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H164" t="s">
         <v>67</v>
@@ -4188,7 +4188,7 @@
         <v>1969</v>
       </c>
       <c r="G165" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H165" t="s">
         <v>67</v>
@@ -4208,7 +4208,7 @@
         <v>1975</v>
       </c>
       <c r="G166" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H166" t="s">
         <v>67</v>
@@ -4228,7 +4228,7 @@
         <v>1979</v>
       </c>
       <c r="G167" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H167" t="s">
         <v>67</v>
@@ -4248,7 +4248,7 @@
         <v>1980</v>
       </c>
       <c r="G168" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H168" t="s">
         <v>67</v>
@@ -4268,7 +4268,7 @@
         <v>1982</v>
       </c>
       <c r="G169" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H169" t="s">
         <v>67</v>
@@ -4288,7 +4288,7 @@
         <v>1983</v>
       </c>
       <c r="G170" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H170" t="s">
         <v>67</v>
@@ -4308,7 +4308,7 @@
         <v>1999</v>
       </c>
       <c r="G171" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H171" t="s">
         <v>67</v>
@@ -4328,7 +4328,7 @@
         <v>2000</v>
       </c>
       <c r="G172" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H172" t="s">
         <v>67</v>
@@ -4348,7 +4348,7 @@
         <v>2002</v>
       </c>
       <c r="G173" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H173" t="s">
         <v>67</v>
@@ -4368,7 +4368,7 @@
         <v>2003</v>
       </c>
       <c r="G174" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H174" t="s">
         <v>67</v>
@@ -4388,7 +4388,7 @@
         <v>2004</v>
       </c>
       <c r="G175" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H175" t="s">
         <v>67</v>
@@ -4414,10 +4414,10 @@
         <v>5</v>
       </c>
       <c r="G176" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H176" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -4440,10 +4440,10 @@
         <v>8</v>
       </c>
       <c r="G177" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H177" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -4466,10 +4466,10 @@
         <v>6</v>
       </c>
       <c r="G178" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H178" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -4492,10 +4492,10 @@
         <v>9</v>
       </c>
       <c r="G179" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H179" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -4518,10 +4518,10 @@
         <v>7</v>
       </c>
       <c r="G180" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H180" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -4544,10 +4544,10 @@
         <v>4</v>
       </c>
       <c r="G181" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H181" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -4570,10 +4570,10 @@
         <v>8</v>
       </c>
       <c r="G182" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H182" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -4596,10 +4596,10 @@
         <v>5</v>
       </c>
       <c r="G183" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H183" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -4622,10 +4622,10 @@
         <v>8</v>
       </c>
       <c r="G184" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H184" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -4648,10 +4648,10 @@
         <v>5</v>
       </c>
       <c r="G185" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H185" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -4674,10 +4674,10 @@
         <v>8</v>
       </c>
       <c r="G186" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H186" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -4700,10 +4700,10 @@
         <v>7</v>
       </c>
       <c r="G187" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H187" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -4726,10 +4726,10 @@
         <v>4</v>
       </c>
       <c r="G188" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H188" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -4752,10 +4752,10 @@
         <v>8</v>
       </c>
       <c r="G189" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H189" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -4778,10 +4778,10 @@
         <v>5</v>
       </c>
       <c r="G190" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H190" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -4804,10 +4804,10 @@
         <v>8</v>
       </c>
       <c r="G191" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H191" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -4830,10 +4830,10 @@
         <v>7</v>
       </c>
       <c r="G192" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H192" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -4856,10 +4856,10 @@
         <v>9</v>
       </c>
       <c r="G193" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H193" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -4882,10 +4882,10 @@
         <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H194" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -4908,10 +4908,10 @@
         <v>4</v>
       </c>
       <c r="G195" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H195" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -4934,10 +4934,10 @@
         <v>8</v>
       </c>
       <c r="G196" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H196" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -4960,10 +4960,10 @@
         <v>4</v>
       </c>
       <c r="G197" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H197" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -4986,10 +4986,10 @@
         <v>9</v>
       </c>
       <c r="G198" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H198" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -5012,10 +5012,10 @@
         <v>6</v>
       </c>
       <c r="G199" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H199" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -5038,10 +5038,10 @@
         <v>9</v>
       </c>
       <c r="G200" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H200" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -5064,10 +5064,10 @@
         <v>7</v>
       </c>
       <c r="G201" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H201" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -5090,10 +5090,10 @@
         <v>4</v>
       </c>
       <c r="G202" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H202" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -5116,10 +5116,10 @@
         <v>8</v>
       </c>
       <c r="G203" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H203" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -5142,10 +5142,10 @@
         <v>5</v>
       </c>
       <c r="G204" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H204" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -5168,10 +5168,10 @@
         <v>9</v>
       </c>
       <c r="G205" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H205" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -5194,10 +5194,10 @@
         <v>5</v>
       </c>
       <c r="G206" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H206" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -5220,10 +5220,10 @@
         <v>9</v>
       </c>
       <c r="G207" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H207" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -5246,10 +5246,10 @@
         <v>8</v>
       </c>
       <c r="G208" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H208" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -5272,10 +5272,10 @@
         <v>3</v>
       </c>
       <c r="G209" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H209" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -5298,10 +5298,10 @@
         <v>7</v>
       </c>
       <c r="G210" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H210" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -5324,10 +5324,10 @@
         <v>5</v>
       </c>
       <c r="G211" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H211" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -5350,10 +5350,10 @@
         <v>8</v>
       </c>
       <c r="G212" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H212" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -5376,10 +5376,10 @@
         <v>6</v>
       </c>
       <c r="G213" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H213" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -5402,10 +5402,10 @@
         <v>9</v>
       </c>
       <c r="G214" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H214" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -5428,10 +5428,10 @@
         <v>8</v>
       </c>
       <c r="G215" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H215" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -5454,10 +5454,10 @@
         <v>3</v>
       </c>
       <c r="G216" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H216" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -5480,10 +5480,10 @@
         <v>7</v>
       </c>
       <c r="G217" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H217" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -5506,10 +5506,10 @@
         <v>5</v>
       </c>
       <c r="G218" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H218" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -5532,10 +5532,10 @@
         <v>9</v>
       </c>
       <c r="G219" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H219" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -5558,10 +5558,10 @@
         <v>6</v>
       </c>
       <c r="G220" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H220" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -5584,10 +5584,10 @@
         <v>10</v>
       </c>
       <c r="G221" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H221" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -5610,10 +5610,10 @@
         <v>8</v>
       </c>
       <c r="G222" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H222" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -5636,10 +5636,10 @@
         <v>2</v>
       </c>
       <c r="G223" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H223" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -5662,10 +5662,10 @@
         <v>7</v>
       </c>
       <c r="G224" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H224" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -5688,10 +5688,10 @@
         <v>6</v>
       </c>
       <c r="G225" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H225" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -5714,10 +5714,10 @@
         <v>9</v>
       </c>
       <c r="G226" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H226" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -5740,10 +5740,10 @@
         <v>6</v>
       </c>
       <c r="G227" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H227" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -5766,10 +5766,10 @@
         <v>9</v>
       </c>
       <c r="G228" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H228" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
@@ -5792,10 +5792,10 @@
         <v>8</v>
       </c>
       <c r="G229" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H229" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -5818,10 +5818,10 @@
         <v>2</v>
       </c>
       <c r="G230" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H230" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -5844,10 +5844,10 @@
         <v>7</v>
       </c>
       <c r="G231" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H231" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -5870,10 +5870,10 @@
         <v>6</v>
       </c>
       <c r="G232" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H232" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -5896,10 +5896,10 @@
         <v>9</v>
       </c>
       <c r="G233" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H233" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -5922,10 +5922,10 @@
         <v>6</v>
       </c>
       <c r="G234" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H234" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -5948,10 +5948,10 @@
         <v>9</v>
       </c>
       <c r="G235" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H235" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -5974,10 +5974,10 @@
         <v>9</v>
       </c>
       <c r="G236" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H236" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -6000,10 +6000,10 @@
         <v>2</v>
       </c>
       <c r="G237" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H237" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -6026,10 +6026,10 @@
         <v>8</v>
       </c>
       <c r="G238" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H238" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -6052,10 +6052,10 @@
         <v>5</v>
       </c>
       <c r="G239" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H239" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -6078,10 +6078,10 @@
         <v>9</v>
       </c>
       <c r="G240" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H240" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -6104,10 +6104,10 @@
         <v>6</v>
       </c>
       <c r="G241" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H241" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -6130,10 +6130,10 @@
         <v>9</v>
       </c>
       <c r="G242" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H242" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -6156,10 +6156,10 @@
         <v>8</v>
       </c>
       <c r="G243" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H243" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -6182,10 +6182,10 @@
         <v>3</v>
       </c>
       <c r="G244" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H244" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -6208,10 +6208,10 @@
         <v>8</v>
       </c>
       <c r="G245" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H245" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -7910,7 +7910,7 @@
         <v>2011</v>
       </c>
       <c r="G319" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H319" t="s">
         <v>67</v>
@@ -7933,7 +7933,7 @@
         <v>2015</v>
       </c>
       <c r="G320" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H320" t="s">
         <v>67</v>
@@ -7956,7 +7956,7 @@
         <v>2018</v>
       </c>
       <c r="G321" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H321" t="s">
         <v>67</v>
@@ -7979,7 +7979,7 @@
         <v>2011</v>
       </c>
       <c r="G322" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H322" t="s">
         <v>67</v>
@@ -8002,7 +8002,7 @@
         <v>2015</v>
       </c>
       <c r="G323" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H323" t="s">
         <v>67</v>
@@ -8025,7 +8025,7 @@
         <v>2017</v>
       </c>
       <c r="G324" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H324" t="s">
         <v>67</v>
@@ -8048,7 +8048,7 @@
         <v>2018</v>
       </c>
       <c r="G325" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H325" t="s">
         <v>67</v>
@@ -8071,7 +8071,7 @@
         <v>2011</v>
       </c>
       <c r="G326" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H326" t="s">
         <v>67</v>
@@ -8094,7 +8094,7 @@
         <v>2015</v>
       </c>
       <c r="G327" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H327" t="s">
         <v>67</v>
@@ -8117,7 +8117,7 @@
         <v>2017</v>
       </c>
       <c r="G328" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H328" t="s">
         <v>67</v>
@@ -8140,7 +8140,7 @@
         <v>2018</v>
       </c>
       <c r="G329" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H329" t="s">
         <v>67</v>
@@ -8163,7 +8163,7 @@
         <v>1997</v>
       </c>
       <c r="G330" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H330" t="s">
         <v>67</v>
@@ -8186,7 +8186,7 @@
         <v>2015</v>
       </c>
       <c r="G331" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H331" t="s">
         <v>67</v>
@@ -8209,7 +8209,7 @@
         <v>2016</v>
       </c>
       <c r="G332" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H332" t="s">
         <v>67</v>
@@ -8232,7 +8232,7 @@
         <v>2017</v>
       </c>
       <c r="G333" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H333" t="s">
         <v>67</v>
@@ -8255,7 +8255,7 @@
         <v>2018</v>
       </c>
       <c r="G334" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H334" t="s">
         <v>67</v>
@@ -8278,7 +8278,7 @@
         <v>1997</v>
       </c>
       <c r="G335" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H335" t="s">
         <v>67</v>
@@ -8301,7 +8301,7 @@
         <v>2015</v>
       </c>
       <c r="G336" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H336" t="s">
         <v>67</v>
@@ -8324,7 +8324,7 @@
         <v>2016</v>
       </c>
       <c r="G337" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H337" t="s">
         <v>67</v>
@@ -8347,7 +8347,7 @@
         <v>2017</v>
       </c>
       <c r="G338" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H338" t="s">
         <v>67</v>
@@ -8370,7 +8370,7 @@
         <v>2018</v>
       </c>
       <c r="G339" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H339" t="s">
         <v>67</v>
@@ -8393,7 +8393,7 @@
         <v>2011</v>
       </c>
       <c r="G340" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H340" t="s">
         <v>67</v>
@@ -8416,7 +8416,7 @@
         <v>2015</v>
       </c>
       <c r="G341" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H341" t="s">
         <v>67</v>
@@ -8439,7 +8439,7 @@
         <v>2016</v>
       </c>
       <c r="G342" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H342" t="s">
         <v>67</v>
@@ -8462,7 +8462,7 @@
         <v>2017</v>
       </c>
       <c r="G343" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H343" t="s">
         <v>67</v>
@@ -8485,7 +8485,7 @@
         <v>2018</v>
       </c>
       <c r="G344" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H344" t="s">
         <v>67</v>
@@ -8508,7 +8508,7 @@
         <v>2011</v>
       </c>
       <c r="G345" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H345" t="s">
         <v>67</v>
@@ -8531,7 +8531,7 @@
         <v>2015</v>
       </c>
       <c r="G346" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H346" t="s">
         <v>67</v>
@@ -8554,7 +8554,7 @@
         <v>2017</v>
       </c>
       <c r="G347" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H347" t="s">
         <v>67</v>
@@ -8577,7 +8577,7 @@
         <v>2018</v>
       </c>
       <c r="G348" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H348" t="s">
         <v>67</v>
@@ -8600,7 +8600,7 @@
         <v>2015</v>
       </c>
       <c r="G349" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H349" t="s">
         <v>67</v>
@@ -8623,7 +8623,7 @@
         <v>2017</v>
       </c>
       <c r="G350" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H350" t="s">
         <v>67</v>
@@ -8646,7 +8646,7 @@
         <v>2018</v>
       </c>
       <c r="G351" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H351" t="s">
         <v>67</v>
@@ -8666,7 +8666,7 @@
         <v>1963</v>
       </c>
       <c r="G352" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H352" t="s">
         <v>67</v>
@@ -8686,7 +8686,7 @@
         <v>1966</v>
       </c>
       <c r="G353" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H353" t="s">
         <v>67</v>
@@ -8706,7 +8706,7 @@
         <v>1969</v>
       </c>
       <c r="G354" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H354" t="s">
         <v>67</v>
@@ -8726,7 +8726,7 @@
         <v>1976</v>
       </c>
       <c r="G355" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H355" t="s">
         <v>67</v>
@@ -8746,7 +8746,7 @@
         <v>1977</v>
       </c>
       <c r="G356" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H356" t="s">
         <v>67</v>
@@ -8766,7 +8766,7 @@
         <v>1978</v>
       </c>
       <c r="G357" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H357" t="s">
         <v>67</v>
@@ -8786,7 +8786,7 @@
         <v>1979</v>
       </c>
       <c r="G358" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H358" t="s">
         <v>67</v>
@@ -8806,7 +8806,7 @@
         <v>1980</v>
       </c>
       <c r="G359" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H359" t="s">
         <v>67</v>
@@ -8826,7 +8826,7 @@
         <v>1981</v>
       </c>
       <c r="G360" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H360" t="s">
         <v>67</v>
@@ -8846,7 +8846,7 @@
         <v>1982</v>
       </c>
       <c r="G361" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H361" t="s">
         <v>67</v>
@@ -8866,7 +8866,7 @@
         <v>1983</v>
       </c>
       <c r="G362" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H362" t="s">
         <v>67</v>
@@ -8886,7 +8886,7 @@
         <v>1984</v>
       </c>
       <c r="G363" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H363" t="s">
         <v>67</v>
@@ -8906,7 +8906,7 @@
         <v>1985</v>
       </c>
       <c r="G364" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H364" t="s">
         <v>67</v>
@@ -8926,7 +8926,7 @@
         <v>1986</v>
       </c>
       <c r="G365" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H365" t="s">
         <v>67</v>
@@ -8946,7 +8946,7 @@
         <v>1987</v>
       </c>
       <c r="G366" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H366" t="s">
         <v>67</v>
@@ -8966,7 +8966,7 @@
         <v>1988</v>
       </c>
       <c r="G367" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H367" t="s">
         <v>67</v>
@@ -8986,7 +8986,7 @@
         <v>1989</v>
       </c>
       <c r="G368" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H368" t="s">
         <v>67</v>
@@ -9006,7 +9006,7 @@
         <v>1990</v>
       </c>
       <c r="G369" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H369" t="s">
         <v>67</v>
@@ -9026,7 +9026,7 @@
         <v>1995</v>
       </c>
       <c r="G370" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H370" t="s">
         <v>67</v>
@@ -9046,7 +9046,7 @@
         <v>2001</v>
       </c>
       <c r="G371" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H371" t="s">
         <v>67</v>
@@ -9066,7 +9066,7 @@
         <v>2002</v>
       </c>
       <c r="G372" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H372" t="s">
         <v>67</v>
@@ -9086,7 +9086,7 @@
         <v>2003</v>
       </c>
       <c r="G373" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H373" t="s">
         <v>67</v>
@@ -9106,7 +9106,7 @@
         <v>2004</v>
       </c>
       <c r="G374" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H374" t="s">
         <v>67</v>
@@ -9126,7 +9126,7 @@
         <v>2005</v>
       </c>
       <c r="G375" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H375" t="s">
         <v>67</v>
@@ -9146,7 +9146,7 @@
         <v>2006</v>
       </c>
       <c r="G376" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H376" t="s">
         <v>67</v>
@@ -9166,7 +9166,7 @@
         <v>2007</v>
       </c>
       <c r="G377" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H377" t="s">
         <v>67</v>
@@ -9186,7 +9186,7 @@
         <v>2001</v>
       </c>
       <c r="G378" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H378" t="s">
         <v>67</v>
@@ -9206,7 +9206,7 @@
         <v>2002</v>
       </c>
       <c r="G379" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H379" t="s">
         <v>67</v>
@@ -9226,7 +9226,7 @@
         <v>2003</v>
       </c>
       <c r="G380" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H380" t="s">
         <v>67</v>
@@ -9246,7 +9246,7 @@
         <v>2004</v>
       </c>
       <c r="G381" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H381" t="s">
         <v>67</v>
@@ -9266,7 +9266,7 @@
         <v>2005</v>
       </c>
       <c r="G382" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H382" t="s">
         <v>67</v>
@@ -9286,7 +9286,7 @@
         <v>2006</v>
       </c>
       <c r="G383" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H383" t="s">
         <v>67</v>
@@ -9306,7 +9306,7 @@
         <v>2007</v>
       </c>
       <c r="G384" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H384" t="s">
         <v>67</v>
@@ -9326,7 +9326,7 @@
         <v>2008</v>
       </c>
       <c r="G385" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H385" t="s">
         <v>67</v>
@@ -9346,7 +9346,7 @@
         <v>2009</v>
       </c>
       <c r="G386" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H386" t="s">
         <v>67</v>
@@ -9366,7 +9366,7 @@
         <v>2002</v>
       </c>
       <c r="G387" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H387" t="s">
         <v>67</v>
@@ -9386,7 +9386,7 @@
         <v>2003</v>
       </c>
       <c r="G388" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H388" t="s">
         <v>67</v>
@@ -9406,7 +9406,7 @@
         <v>2004</v>
       </c>
       <c r="G389" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H389" t="s">
         <v>67</v>
@@ -9426,7 +9426,7 @@
         <v>2005</v>
       </c>
       <c r="G390" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H390" t="s">
         <v>67</v>
@@ -9446,7 +9446,7 @@
         <v>2006</v>
       </c>
       <c r="G391" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H391" t="s">
         <v>67</v>
@@ -9466,7 +9466,7 @@
         <v>2007</v>
       </c>
       <c r="G392" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H392" t="s">
         <v>67</v>
@@ -9486,7 +9486,7 @@
         <v>2008</v>
       </c>
       <c r="G393" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H393" t="s">
         <v>67</v>
@@ -9509,7 +9509,7 @@
         <v>1911</v>
       </c>
       <c r="G394" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H394" t="s">
         <v>67</v>
@@ -9532,7 +9532,7 @@
         <v>1912</v>
       </c>
       <c r="G395" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H395" t="s">
         <v>67</v>
@@ -9555,7 +9555,7 @@
         <v>1913</v>
       </c>
       <c r="G396" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H396" t="s">
         <v>67</v>
@@ -9578,7 +9578,7 @@
         <v>1914</v>
       </c>
       <c r="G397" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H397" t="s">
         <v>67</v>
@@ -9601,7 +9601,7 @@
         <v>1915</v>
       </c>
       <c r="G398" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H398" t="s">
         <v>67</v>
@@ -9624,7 +9624,7 @@
         <v>1916</v>
       </c>
       <c r="G399" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H399" t="s">
         <v>67</v>
@@ -9647,7 +9647,7 @@
         <v>1917</v>
       </c>
       <c r="G400" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H400" t="s">
         <v>67</v>
@@ -9670,7 +9670,7 @@
         <v>1918</v>
       </c>
       <c r="G401" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H401" t="s">
         <v>67</v>
@@ -9693,7 +9693,7 @@
         <v>1919</v>
       </c>
       <c r="G402" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H402" t="s">
         <v>67</v>
@@ -9716,7 +9716,7 @@
         <v>1920</v>
       </c>
       <c r="G403" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H403" t="s">
         <v>67</v>
@@ -9739,7 +9739,7 @@
         <v>1921</v>
       </c>
       <c r="G404" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H404" t="s">
         <v>67</v>
@@ -9762,7 +9762,7 @@
         <v>1922</v>
       </c>
       <c r="G405" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H405" t="s">
         <v>67</v>
@@ -9785,7 +9785,7 @@
         <v>1923</v>
       </c>
       <c r="G406" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H406" t="s">
         <v>67</v>
@@ -9808,7 +9808,7 @@
         <v>1924</v>
       </c>
       <c r="G407" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H407" t="s">
         <v>67</v>
@@ -9831,7 +9831,7 @@
         <v>1925</v>
       </c>
       <c r="G408" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H408" t="s">
         <v>67</v>
@@ -9854,7 +9854,7 @@
         <v>1926</v>
       </c>
       <c r="G409" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H409" t="s">
         <v>67</v>
@@ -9877,7 +9877,7 @@
         <v>1927</v>
       </c>
       <c r="G410" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H410" t="s">
         <v>67</v>
@@ -9900,7 +9900,7 @@
         <v>1928</v>
       </c>
       <c r="G411" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H411" t="s">
         <v>67</v>
@@ -9923,7 +9923,7 @@
         <v>1929</v>
       </c>
       <c r="G412" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H412" t="s">
         <v>67</v>
@@ -9946,7 +9946,7 @@
         <v>1930</v>
       </c>
       <c r="G413" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H413" t="s">
         <v>67</v>
@@ -9969,7 +9969,7 @@
         <v>1931</v>
       </c>
       <c r="G414" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H414" t="s">
         <v>67</v>
@@ -9992,7 +9992,7 @@
         <v>1932</v>
       </c>
       <c r="G415" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H415" t="s">
         <v>67</v>
@@ -10015,7 +10015,7 @@
         <v>1933</v>
       </c>
       <c r="G416" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H416" t="s">
         <v>67</v>
@@ -10038,7 +10038,7 @@
         <v>1934</v>
       </c>
       <c r="G417" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H417" t="s">
         <v>67</v>
@@ -10061,7 +10061,7 @@
         <v>1935</v>
       </c>
       <c r="G418" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H418" t="s">
         <v>67</v>
@@ -10084,7 +10084,7 @@
         <v>1936</v>
       </c>
       <c r="G419" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H419" t="s">
         <v>67</v>
@@ -10107,7 +10107,7 @@
         <v>1937</v>
       </c>
       <c r="G420" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H420" t="s">
         <v>67</v>
@@ -10130,7 +10130,7 @@
         <v>1938</v>
       </c>
       <c r="G421" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H421" t="s">
         <v>67</v>
@@ -10153,7 +10153,7 @@
         <v>1939</v>
       </c>
       <c r="G422" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H422" t="s">
         <v>67</v>
@@ -10176,7 +10176,7 @@
         <v>1940</v>
       </c>
       <c r="G423" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H423" t="s">
         <v>67</v>
@@ -10199,7 +10199,7 @@
         <v>1941</v>
       </c>
       <c r="G424" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H424" t="s">
         <v>67</v>
@@ -10222,7 +10222,7 @@
         <v>1946</v>
       </c>
       <c r="G425" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H425" t="s">
         <v>67</v>
@@ -10245,7 +10245,7 @@
         <v>1947</v>
       </c>
       <c r="G426" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H426" t="s">
         <v>67</v>
@@ -10268,7 +10268,7 @@
         <v>1948</v>
       </c>
       <c r="G427" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H427" t="s">
         <v>67</v>
@@ -10291,7 +10291,7 @@
         <v>1949</v>
       </c>
       <c r="G428" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H428" t="s">
         <v>67</v>
@@ -10314,7 +10314,7 @@
         <v>1950</v>
       </c>
       <c r="G429" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H429" t="s">
         <v>67</v>
@@ -10337,7 +10337,7 @@
         <v>1911</v>
       </c>
       <c r="G430" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H430" t="s">
         <v>67</v>
@@ -10360,7 +10360,7 @@
         <v>1912</v>
       </c>
       <c r="G431" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H431" t="s">
         <v>67</v>
@@ -10383,7 +10383,7 @@
         <v>1913</v>
       </c>
       <c r="G432" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H432" t="s">
         <v>67</v>
@@ -10406,7 +10406,7 @@
         <v>1914</v>
       </c>
       <c r="G433" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H433" t="s">
         <v>67</v>
@@ -10429,7 +10429,7 @@
         <v>1915</v>
       </c>
       <c r="G434" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H434" t="s">
         <v>67</v>
@@ -10452,7 +10452,7 @@
         <v>1916</v>
       </c>
       <c r="G435" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H435" t="s">
         <v>67</v>
@@ -10475,7 +10475,7 @@
         <v>1917</v>
       </c>
       <c r="G436" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H436" t="s">
         <v>67</v>
@@ -10498,7 +10498,7 @@
         <v>1918</v>
       </c>
       <c r="G437" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H437" t="s">
         <v>67</v>
@@ -10521,7 +10521,7 @@
         <v>1919</v>
       </c>
       <c r="G438" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H438" t="s">
         <v>67</v>
@@ -10544,7 +10544,7 @@
         <v>1920</v>
       </c>
       <c r="G439" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H439" t="s">
         <v>67</v>
@@ -10567,7 +10567,7 @@
         <v>1921</v>
       </c>
       <c r="G440" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H440" t="s">
         <v>67</v>
@@ -10590,7 +10590,7 @@
         <v>1922</v>
       </c>
       <c r="G441" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H441" t="s">
         <v>67</v>
@@ -10613,7 +10613,7 @@
         <v>1923</v>
       </c>
       <c r="G442" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H442" t="s">
         <v>67</v>
@@ -10636,7 +10636,7 @@
         <v>1924</v>
       </c>
       <c r="G443" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H443" t="s">
         <v>67</v>
@@ -10659,7 +10659,7 @@
         <v>1925</v>
       </c>
       <c r="G444" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H444" t="s">
         <v>67</v>
@@ -10682,7 +10682,7 @@
         <v>1926</v>
       </c>
       <c r="G445" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H445" t="s">
         <v>67</v>
@@ -10705,7 +10705,7 @@
         <v>1927</v>
       </c>
       <c r="G446" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H446" t="s">
         <v>67</v>
@@ -10728,7 +10728,7 @@
         <v>1928</v>
       </c>
       <c r="G447" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H447" t="s">
         <v>67</v>
@@ -10751,7 +10751,7 @@
         <v>1929</v>
       </c>
       <c r="G448" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H448" t="s">
         <v>67</v>
@@ -10774,7 +10774,7 @@
         <v>1930</v>
       </c>
       <c r="G449" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H449" t="s">
         <v>67</v>
@@ -10797,7 +10797,7 @@
         <v>1931</v>
       </c>
       <c r="G450" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H450" t="s">
         <v>67</v>
@@ -10820,7 +10820,7 @@
         <v>1932</v>
       </c>
       <c r="G451" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H451" t="s">
         <v>67</v>
@@ -10843,7 +10843,7 @@
         <v>1933</v>
       </c>
       <c r="G452" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H452" t="s">
         <v>67</v>
@@ -10866,7 +10866,7 @@
         <v>1934</v>
       </c>
       <c r="G453" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H453" t="s">
         <v>67</v>
@@ -10889,7 +10889,7 @@
         <v>1935</v>
       </c>
       <c r="G454" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H454" t="s">
         <v>67</v>
@@ -10912,7 +10912,7 @@
         <v>1936</v>
       </c>
       <c r="G455" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H455" t="s">
         <v>67</v>
@@ -10935,7 +10935,7 @@
         <v>1937</v>
       </c>
       <c r="G456" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H456" t="s">
         <v>67</v>
@@ -10958,7 +10958,7 @@
         <v>1938</v>
       </c>
       <c r="G457" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H457" t="s">
         <v>67</v>
@@ -10981,7 +10981,7 @@
         <v>1939</v>
       </c>
       <c r="G458" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H458" t="s">
         <v>67</v>
@@ -11004,7 +11004,7 @@
         <v>1940</v>
       </c>
       <c r="G459" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H459" t="s">
         <v>67</v>
@@ -11027,7 +11027,7 @@
         <v>1941</v>
       </c>
       <c r="G460" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H460" t="s">
         <v>67</v>
@@ -11050,7 +11050,7 @@
         <v>1945</v>
       </c>
       <c r="G461" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H461" t="s">
         <v>67</v>
@@ -11073,7 +11073,7 @@
         <v>1946</v>
       </c>
       <c r="G462" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H462" t="s">
         <v>67</v>
@@ -11096,7 +11096,7 @@
         <v>1947</v>
       </c>
       <c r="G463" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H463" t="s">
         <v>67</v>
@@ -11119,7 +11119,7 @@
         <v>1948</v>
       </c>
       <c r="G464" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H464" t="s">
         <v>67</v>
@@ -11142,7 +11142,7 @@
         <v>1949</v>
       </c>
       <c r="G465" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H465" t="s">
         <v>67</v>
@@ -11165,7 +11165,7 @@
         <v>1944</v>
       </c>
       <c r="G466" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H466" t="s">
         <v>67</v>
@@ -11188,7 +11188,7 @@
         <v>1957</v>
       </c>
       <c r="G467" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H467" t="s">
         <v>67</v>
@@ -11211,7 +11211,7 @@
         <v>1963</v>
       </c>
       <c r="G468" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H468" t="s">
         <v>67</v>
@@ -11234,7 +11234,7 @@
         <v>1966</v>
       </c>
       <c r="G469" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H469" t="s">
         <v>67</v>
